--- a/raw_data/ICP-USD_4h_process.xlsx
+++ b/raw_data/ICP-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>9.161472320556641</v>
+        <v>14.04658508300781</v>
       </c>
       <c r="C2">
-        <v>9.419595718383787</v>
+        <v>14.9584379196167</v>
       </c>
       <c r="D2">
-        <v>9.161472320556641</v>
+        <v>14.00182247161865</v>
       </c>
       <c r="E2">
-        <v>9.219171524047852</v>
+        <v>14.8928337097168</v>
       </c>
       <c r="F2">
-        <v>2965488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>9.223896980285645</v>
+        <v>14.891282081604</v>
       </c>
       <c r="C3">
-        <v>10.06341648101807</v>
+        <v>15.49530220031738</v>
       </c>
       <c r="D3">
-        <v>9.216591835021973</v>
+        <v>14.32073593139648</v>
       </c>
       <c r="E3">
-        <v>9.700801849365234</v>
+        <v>14.3573408126831</v>
       </c>
       <c r="F3">
-        <v>31865248</v>
+        <v>6554688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>9.701894760131836</v>
+        <v>14.36814498901367</v>
       </c>
       <c r="C4">
-        <v>9.962212562561035</v>
+        <v>15.19304847717285</v>
       </c>
       <c r="D4">
-        <v>9.465206146240234</v>
+        <v>14.16213893890381</v>
       </c>
       <c r="E4">
-        <v>9.481307983398438</v>
+        <v>14.3832483291626</v>
       </c>
       <c r="F4">
-        <v>20175104</v>
+        <v>24593984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>9.481703758239746</v>
+        <v>14.38363742828369</v>
       </c>
       <c r="C5">
-        <v>9.906941413879396</v>
+        <v>14.8076286315918</v>
       </c>
       <c r="D5">
-        <v>9.468719482421877</v>
+        <v>14.26460361480713</v>
       </c>
       <c r="E5">
-        <v>9.868354797363279</v>
+        <v>14.41333675384522</v>
       </c>
       <c r="F5">
-        <v>8159920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>9.849252700805664</v>
+        <v>14.40145778656006</v>
       </c>
       <c r="C6">
-        <v>10.46285820007324</v>
+        <v>14.49137210845947</v>
       </c>
       <c r="D6">
-        <v>9.612340927124023</v>
+        <v>13.62295341491699</v>
       </c>
       <c r="E6">
-        <v>9.691120147705078</v>
+        <v>14.02169990539551</v>
       </c>
       <c r="F6">
-        <v>89064096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>9.688058853149414</v>
+        <v>14.02136421203613</v>
       </c>
       <c r="C7">
-        <v>10.33488750457764</v>
+        <v>14.89721012115478</v>
       </c>
       <c r="D7">
-        <v>9.577892303466797</v>
+        <v>14.02136421203613</v>
       </c>
       <c r="E7">
-        <v>10.31347751617432</v>
+        <v>14.69890022277832</v>
       </c>
       <c r="F7">
-        <v>38843328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>10.30882167816162</v>
+        <v>14.71485996246338</v>
       </c>
       <c r="C8">
-        <v>10.30882167816162</v>
+        <v>14.80265712738037</v>
       </c>
       <c r="D8">
-        <v>9.793327331542969</v>
+        <v>14.1132755279541</v>
       </c>
       <c r="E8">
-        <v>9.793327331542969</v>
+        <v>14.1132755279541</v>
       </c>
       <c r="F8">
-        <v>10574368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,16 +1154,16 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>9.791098594665527</v>
+        <v>14.10929489135742</v>
       </c>
       <c r="C9">
-        <v>9.873947143554688</v>
+        <v>14.27304363250732</v>
       </c>
       <c r="D9">
-        <v>9.438631057739258</v>
+        <v>13.86556911468506</v>
       </c>
       <c r="E9">
-        <v>9.550530433654783</v>
+        <v>13.87189197540283</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>9.550609588623049</v>
+        <v>13.87796306610107</v>
       </c>
       <c r="C10">
-        <v>9.630253791809082</v>
+        <v>14.5292911529541</v>
       </c>
       <c r="D10">
-        <v>9.271398544311523</v>
+        <v>13.60104656219482</v>
       </c>
       <c r="E10">
-        <v>9.271398544311523</v>
+        <v>13.61659336090088</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1734368</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,25 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>9.278401374816896</v>
+        <v>13.6185712814331</v>
       </c>
       <c r="C11">
-        <v>9.524930000305176</v>
+        <v>13.66095638275146</v>
       </c>
       <c r="D11">
-        <v>9.278401374816896</v>
+        <v>13.33451557159424</v>
       </c>
       <c r="E11">
-        <v>9.489505767822266</v>
+        <v>13.518385887146</v>
       </c>
       <c r="F11">
-        <v>660224</v>
+        <v>5527072</v>
       </c>
       <c r="L11">
-        <v>49.63241671422253</v>
+        <v>24.91289383866534</v>
+      </c>
+      <c r="N11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1220,25 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>9.487026214599609</v>
+        <v>13.51909255981445</v>
       </c>
       <c r="C12">
-        <v>9.653441429138184</v>
+        <v>13.63691139221191</v>
       </c>
       <c r="D12">
-        <v>9.313453674316406</v>
+        <v>13.25142478942871</v>
       </c>
       <c r="E12">
-        <v>9.327510833740234</v>
+        <v>13.32223987579346</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>865792</v>
       </c>
       <c r="L12">
-        <v>45.45908071178589</v>
+        <v>22.19523621441531</v>
+      </c>
+      <c r="N12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1246,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>9.335183143615724</v>
+        <v>13.32144165039062</v>
       </c>
       <c r="C13">
-        <v>9.352228164672852</v>
+        <v>13.55075168609619</v>
       </c>
       <c r="D13">
-        <v>9.122520446777344</v>
+        <v>12.8065824508667</v>
       </c>
       <c r="E13">
-        <v>9.352228164672852</v>
+        <v>13.02070903778076</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>11312032</v>
       </c>
       <c r="L13">
-        <v>46.23509456972597</v>
+        <v>18.67251579548691</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1272,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>9.352323532104492</v>
+        <v>13.03884410858154</v>
       </c>
       <c r="C14">
-        <v>9.389667510986328</v>
+        <v>13.17267608642578</v>
       </c>
       <c r="D14">
-        <v>9.190837860107422</v>
+        <v>12.74833869934082</v>
       </c>
       <c r="E14">
-        <v>9.386908531188965</v>
+        <v>13.06501579284668</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>309904</v>
       </c>
       <c r="L14">
-        <v>47.41605359262746</v>
+        <v>20.75172857376034</v>
+      </c>
+      <c r="N14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1298,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>9.386924743652344</v>
+        <v>13.06758308410644</v>
       </c>
       <c r="C15">
-        <v>9.978883743286133</v>
+        <v>13.37004089355469</v>
       </c>
       <c r="D15">
-        <v>9.386924743652344</v>
+        <v>13.03662776947022</v>
       </c>
       <c r="E15">
-        <v>9.850383758544922</v>
+        <v>13.28892135620117</v>
       </c>
       <c r="F15">
-        <v>4345784</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>60.47036834874766</v>
+        <v>30.80856523408023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,5724 +1321,5736 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>9.857441902160645</v>
+        <v>13.29518127441406</v>
       </c>
       <c r="C16">
-        <v>10.13306713104248</v>
+        <v>13.30610370635986</v>
       </c>
       <c r="D16">
-        <v>9.857441902160645</v>
+        <v>12.80375480651856</v>
       </c>
       <c r="E16">
-        <v>10.0062894821167</v>
+        <v>12.99445915222168</v>
       </c>
       <c r="F16">
-        <v>11298696</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>63.86517407177687</v>
+        <v>25.93851063378171</v>
       </c>
       <c r="M16">
-        <v>61.72237255454386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>25.85200789558513</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>10.0066499710083</v>
+        <v>12.99832439422607</v>
       </c>
       <c r="C17">
-        <v>10.16595077514648</v>
+        <v>13.17504405975342</v>
       </c>
       <c r="D17">
-        <v>9.803662300109863</v>
+        <v>11.78354072570801</v>
       </c>
       <c r="E17">
-        <v>10.06045627593994</v>
+        <v>11.98758220672607</v>
       </c>
       <c r="F17">
-        <v>24523240</v>
+        <v>13480080</v>
       </c>
       <c r="L17">
-        <v>65.03872780463279</v>
+        <v>16.1300980602106</v>
       </c>
       <c r="M17">
-        <v>62.64296623815218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.78182321985495</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>10.07308101654053</v>
+        <v>11.99484062194824</v>
       </c>
       <c r="C18">
-        <v>11.38911151885986</v>
+        <v>12.3157148361206</v>
       </c>
       <c r="D18">
-        <v>9.965496063232422</v>
+        <v>11.97844314575195</v>
       </c>
       <c r="E18">
-        <v>11.26821517944336</v>
+        <v>12.12436866760254</v>
       </c>
       <c r="F18">
-        <v>91501696</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>80.73398718336777</v>
+        <v>20.71234511840283</v>
       </c>
       <c r="M18">
-        <v>76.31889328729112</v>
-      </c>
-      <c r="O18" t="s">
+        <v>21.3728063737253</v>
+      </c>
+      <c r="N18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>11.27272605895996</v>
+        <v>12.12375259399414</v>
       </c>
       <c r="C19">
-        <v>11.29221057891846</v>
+        <v>12.44388198852539</v>
       </c>
       <c r="D19">
-        <v>10.71040439605713</v>
+        <v>11.91356945037842</v>
       </c>
       <c r="E19">
-        <v>10.94538879394531</v>
+        <v>12.22541618347168</v>
       </c>
       <c r="F19">
-        <v>67373024</v>
+        <v>2390304</v>
       </c>
       <c r="L19">
-        <v>71.13148444011138</v>
+        <v>24.15606845911955</v>
       </c>
       <c r="M19">
-        <v>69.0431336351291</v>
-      </c>
-      <c r="O19" t="s">
+        <v>24.01309551954831</v>
+      </c>
+      <c r="N19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>10.94803237915039</v>
+        <v>12.22316265106201</v>
       </c>
       <c r="C20">
-        <v>12.54484272003174</v>
+        <v>12.28510284423828</v>
       </c>
       <c r="D20">
-        <v>10.92043685913086</v>
+        <v>12.02693748474121</v>
       </c>
       <c r="E20">
-        <v>12.38330078125</v>
+        <v>12.16927242279053</v>
       </c>
       <c r="F20">
-        <v>127922336</v>
+        <v>169296</v>
       </c>
       <c r="L20">
-        <v>81.9119200601842</v>
+        <v>23.51759339626273</v>
       </c>
       <c r="M20">
-        <v>78.75727579642313</v>
-      </c>
-      <c r="O20" t="s">
+        <v>23.5401101069321</v>
+      </c>
+      <c r="N20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>12.32919692993164</v>
+        <v>12.17146587371826</v>
       </c>
       <c r="C21">
-        <v>13.06841278076172</v>
+        <v>12.20503616333008</v>
       </c>
       <c r="D21">
-        <v>11.97665023803711</v>
+        <v>11.91003131866455</v>
       </c>
       <c r="E21">
-        <v>12.60573387145996</v>
+        <v>12.02555084228516</v>
       </c>
       <c r="F21">
-        <v>113937888</v>
+        <v>9002896</v>
       </c>
       <c r="H21">
-        <v>10.0782705783844</v>
+        <v>13.40555210113525</v>
       </c>
       <c r="L21">
-        <v>83.0156919497531</v>
+        <v>21.85409095934058</v>
       </c>
       <c r="M21">
-        <v>79.812585513385</v>
-      </c>
-      <c r="O21" t="s">
+        <v>22.32770210034557</v>
+      </c>
+      <c r="N21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>12.60009098052978</v>
+        <v>12.02846050262451</v>
       </c>
       <c r="C22">
-        <v>13.68632507324219</v>
+        <v>12.49437618255615</v>
       </c>
       <c r="D22">
-        <v>12.5202169418335</v>
+        <v>12.02846050262451</v>
       </c>
       <c r="E22">
-        <v>13.3630485534668</v>
+        <v>12.40086364746094</v>
       </c>
       <c r="F22">
-        <v>82504768</v>
+        <v>15215008</v>
       </c>
       <c r="G22">
-        <v>10.23468857719785</v>
+        <v>13.35770979381743</v>
       </c>
       <c r="H22">
-        <v>10.28546442985535</v>
+        <v>13.28095359802246</v>
       </c>
       <c r="L22">
-        <v>86.23337850701041</v>
+        <v>35.29919502778818</v>
       </c>
       <c r="M22">
-        <v>82.92314966772783</v>
-      </c>
-      <c r="O22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>32.15460692621301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>13.36222839355469</v>
+        <v>12.39548587799072</v>
       </c>
       <c r="C23">
-        <v>13.58589363098144</v>
+        <v>12.74695682525635</v>
       </c>
       <c r="D23">
-        <v>13.12021827697754</v>
+        <v>12.18512725830078</v>
       </c>
       <c r="E23">
-        <v>13.4379415512085</v>
+        <v>12.18839836120606</v>
       </c>
       <c r="F23">
-        <v>66353920</v>
+        <v>1446208</v>
       </c>
       <c r="G23">
-        <v>10.525893393017</v>
+        <v>13.25140875448912</v>
       </c>
       <c r="H23">
-        <v>10.47232141494751</v>
+        <v>13.17250647544861</v>
       </c>
       <c r="L23">
-        <v>86.51755099178493</v>
+        <v>31.81330390910619</v>
       </c>
       <c r="M23">
-        <v>83.19885606086213</v>
-      </c>
-      <c r="O23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>29.85208118497019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>13.43251514434814</v>
+        <v>12.1660566329956</v>
       </c>
       <c r="C24">
-        <v>13.93725204467773</v>
+        <v>12.26394367218018</v>
       </c>
       <c r="D24">
-        <v>13.25364208221436</v>
+        <v>11.80533599853516</v>
       </c>
       <c r="E24">
-        <v>13.92651844024658</v>
+        <v>11.93023872375488</v>
       </c>
       <c r="F24">
-        <v>61092032</v>
+        <v>2503776</v>
       </c>
       <c r="G24">
-        <v>10.83504112458332</v>
+        <v>13.13130238805874</v>
       </c>
       <c r="H24">
-        <v>10.69458193778992</v>
+        <v>13.04985599517822</v>
       </c>
       <c r="L24">
-        <v>88.29135460073437</v>
+        <v>28.02958729775582</v>
       </c>
       <c r="M24">
-        <v>84.91041815062889</v>
-      </c>
-      <c r="O24" t="s">
+        <v>27.29454282295037</v>
+      </c>
+      <c r="N24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>13.93258666992188</v>
+        <v>11.9284086227417</v>
       </c>
       <c r="C25">
-        <v>15.1942138671875</v>
+        <v>12.11918926239014</v>
       </c>
       <c r="D25">
-        <v>13.70987796783447</v>
+        <v>11.86845874786377</v>
       </c>
       <c r="E25">
-        <v>13.71074199676514</v>
+        <v>11.92651844024658</v>
       </c>
       <c r="F25">
-        <v>140873152</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>11.09646847659985</v>
+        <v>13.02177657462127</v>
       </c>
       <c r="H25">
-        <v>10.88670129776001</v>
+        <v>12.92551507949829</v>
       </c>
       <c r="L25">
-        <v>82.87410048112224</v>
+        <v>27.9756449118943</v>
       </c>
       <c r="M25">
-        <v>80.98648025950327</v>
-      </c>
-      <c r="O25" t="s">
+        <v>27.25830027752173</v>
+      </c>
+      <c r="N25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>13.68421936035156</v>
+        <v>11.92442417144775</v>
       </c>
       <c r="C26">
-        <v>13.89236450195312</v>
+        <v>11.97661304473877</v>
       </c>
       <c r="D26">
-        <v>13.22945690155029</v>
+        <v>11.59499073028564</v>
       </c>
       <c r="E26">
-        <v>13.32614135742188</v>
+        <v>11.77463531494141</v>
       </c>
       <c r="F26">
-        <v>39036864</v>
+        <v>9119232</v>
       </c>
       <c r="G26">
-        <v>11.29916601122003</v>
+        <v>12.90840009646855</v>
       </c>
       <c r="H26">
-        <v>11.06845235824585</v>
+        <v>12.81316184997559</v>
       </c>
       <c r="L26">
-        <v>73.79493230157931</v>
+        <v>25.70371295169144</v>
       </c>
       <c r="M26">
-        <v>74.38784983137162</v>
-      </c>
-      <c r="O26" t="s">
+        <v>25.75474861831153</v>
+      </c>
+      <c r="N26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>13.3187198638916</v>
+        <v>11.77398300170898</v>
       </c>
       <c r="C27">
-        <v>13.83609962463379</v>
+        <v>11.79642581939697</v>
       </c>
       <c r="D27">
-        <v>13.18923187255859</v>
+        <v>11.13198757171631</v>
       </c>
       <c r="E27">
-        <v>13.2788610458374</v>
+        <v>11.25742435455322</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>15900912</v>
       </c>
       <c r="G27">
-        <v>11.47913828709434</v>
+        <v>12.75831139265807</v>
       </c>
       <c r="H27">
-        <v>11.216721534729</v>
+        <v>12.64108805656433</v>
       </c>
       <c r="L27">
-        <v>72.69353034251974</v>
+        <v>19.60441533015156</v>
       </c>
       <c r="M27">
-        <v>73.59399937820932</v>
-      </c>
-      <c r="O27" t="s">
+        <v>21.42151052535451</v>
+      </c>
+      <c r="N27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>13.30028343200684</v>
+        <v>11.26193237304688</v>
       </c>
       <c r="C28">
-        <v>13.50589275360107</v>
+        <v>11.3686056137085</v>
       </c>
       <c r="D28">
-        <v>12.74955081939697</v>
+        <v>10.42396926879883</v>
       </c>
       <c r="E28">
-        <v>13.47399616241455</v>
+        <v>10.62713623046875</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>21742544</v>
       </c>
       <c r="G28">
-        <v>11.66048900303254</v>
+        <v>12.5645681960954</v>
       </c>
       <c r="H28">
-        <v>11.40075497627258</v>
+        <v>12.46678109169006</v>
       </c>
       <c r="L28">
-        <v>74.46320457758685</v>
+        <v>14.79223671917304</v>
       </c>
       <c r="M28">
-        <v>74.7897842096194</v>
-      </c>
-      <c r="O28" t="s">
+        <v>17.54701932088709</v>
+      </c>
+      <c r="N28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>13.47718238830566</v>
+        <v>10.62218952178955</v>
       </c>
       <c r="C29">
-        <v>13.91088771820068</v>
+        <v>11.19753551483154</v>
       </c>
       <c r="D29">
-        <v>13.33598041534424</v>
+        <v>10.55530452728272</v>
       </c>
       <c r="E29">
-        <v>13.90436267852783</v>
+        <v>10.9653491973877</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5987184</v>
       </c>
       <c r="G29">
-        <v>11.86447751898666</v>
+        <v>12.41918465075834</v>
       </c>
       <c r="H29">
-        <v>11.61844658851624</v>
+        <v>12.32145395278931</v>
       </c>
       <c r="L29">
-        <v>78.00067412614831</v>
+        <v>25.78888760813988</v>
       </c>
       <c r="M29">
-        <v>77.23799420200505</v>
-      </c>
-      <c r="O29" t="s">
+        <v>25.34950683359844</v>
+      </c>
+      <c r="N29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>13.9056224822998</v>
+        <v>10.96585559844971</v>
       </c>
       <c r="C30">
-        <v>13.90587329864502</v>
+        <v>12.44849109649658</v>
       </c>
       <c r="D30">
-        <v>13.29155826568604</v>
+        <v>10.96470832824707</v>
       </c>
       <c r="E30">
-        <v>13.38690757751465</v>
+        <v>12.32138252258301</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>49001632</v>
       </c>
       <c r="G30">
-        <v>12.00288025158011</v>
+        <v>12.41029354819695</v>
       </c>
       <c r="H30">
-        <v>11.82422204017639</v>
+        <v>12.25669341087341</v>
       </c>
       <c r="L30">
-        <v>65.69166001072432</v>
+        <v>53.09393380198762</v>
       </c>
       <c r="M30">
-        <v>68.61055483355861</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>47.00352504395293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>13.38994026184082</v>
+        <v>12.32160091400146</v>
       </c>
       <c r="C31">
-        <v>13.39490699768066</v>
+        <v>13.23146724700928</v>
       </c>
       <c r="D31">
-        <v>12.91830253601074</v>
+        <v>12.32160091400146</v>
       </c>
       <c r="E31">
-        <v>13.14272594451904</v>
+        <v>13.23146724700928</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>83112944</v>
       </c>
       <c r="G31">
-        <v>12.10650258730183</v>
+        <v>12.48494570263443</v>
       </c>
       <c r="H31">
-        <v>12.00688304901123</v>
+        <v>12.24234747886658</v>
       </c>
       <c r="I31">
-        <v>11.21722189585368</v>
+        <v>12.89114853541056</v>
       </c>
       <c r="L31">
-        <v>60.61370781074431</v>
+        <v>63.29164818497429</v>
       </c>
       <c r="M31">
-        <v>64.9251203361875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>56.18871169950128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>13.13833427429199</v>
+        <v>13.23078441619873</v>
       </c>
       <c r="C32">
-        <v>13.19129848480225</v>
+        <v>13.84229469299316</v>
       </c>
       <c r="D32">
-        <v>12.92584991455078</v>
+        <v>12.98691654205322</v>
       </c>
       <c r="E32">
-        <v>12.96116828918457</v>
+        <v>13.55470371246338</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>90068384</v>
       </c>
       <c r="G32">
-        <v>12.18419946929117</v>
+        <v>12.5821964308007</v>
       </c>
       <c r="H32">
-        <v>12.18856592178345</v>
+        <v>12.25397067070007</v>
       </c>
       <c r="I32">
-        <v>11.34195512135824</v>
+        <v>12.84654420216878</v>
       </c>
       <c r="L32">
-        <v>56.93248100299207</v>
+        <v>66.2255971668633</v>
       </c>
       <c r="M32">
-        <v>62.24775454379589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>58.91250339504774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>12.95970916748047</v>
+        <v>13.56814193725586</v>
       </c>
       <c r="C33">
-        <v>13.28919219970703</v>
+        <v>13.81899261474609</v>
       </c>
       <c r="D33">
-        <v>12.59875297546387</v>
+        <v>13.50719451904297</v>
       </c>
       <c r="E33">
-        <v>12.98677921295166</v>
+        <v>13.6978235244751</v>
       </c>
       <c r="F33">
-        <v>16661248</v>
+        <v>28480640</v>
       </c>
       <c r="G33">
-        <v>12.25716126416939</v>
+        <v>12.68361707568019</v>
       </c>
       <c r="H33">
-        <v>12.37029347419739</v>
+        <v>12.28782639503479</v>
       </c>
       <c r="I33">
-        <v>11.45148770014445</v>
+        <v>12.82456029256185</v>
       </c>
       <c r="L33">
-        <v>57.34360148171486</v>
+        <v>67.51875710527054</v>
       </c>
       <c r="M33">
-        <v>62.48278325579378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>60.09547442842775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>12.98844528198242</v>
+        <v>13.70750141143799</v>
       </c>
       <c r="C34">
-        <v>13.66123962402344</v>
+        <v>13.72251796722412</v>
       </c>
       <c r="D34">
-        <v>12.98844528198242</v>
+        <v>13.06124019622803</v>
       </c>
       <c r="E34">
-        <v>13.3642749786377</v>
+        <v>13.15803241729736</v>
       </c>
       <c r="F34">
-        <v>2545632</v>
+        <v>2762880</v>
       </c>
       <c r="G34">
-        <v>12.35780796548469</v>
+        <v>12.72674574309993</v>
       </c>
       <c r="H34">
-        <v>12.56916179656982</v>
+        <v>12.29247722625732</v>
       </c>
       <c r="I34">
-        <v>11.58091993331909</v>
+        <v>12.78371976216634</v>
       </c>
       <c r="L34">
-        <v>63.17301408671722</v>
+        <v>58.08271327539463</v>
       </c>
       <c r="M34">
-        <v>65.85684698627513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>53.80351737851419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>13.36445713043213</v>
+        <v>13.15821647644043</v>
       </c>
       <c r="C35">
-        <v>13.80046081542969</v>
+        <v>13.91667175292969</v>
       </c>
       <c r="D35">
-        <v>13.31381988525391</v>
+        <v>13.13226890563965</v>
       </c>
       <c r="E35">
-        <v>13.64552307128906</v>
+        <v>13.8826322555542</v>
       </c>
       <c r="F35">
-        <v>10514112</v>
+        <v>23824128</v>
       </c>
       <c r="G35">
-        <v>12.47487297510327</v>
+        <v>12.83182633514123</v>
       </c>
       <c r="H35">
-        <v>12.75891876220703</v>
+        <v>12.32216277122498</v>
       </c>
       <c r="I35">
-        <v>11.70682554244995</v>
+        <v>12.76602961222331</v>
       </c>
       <c r="L35">
-        <v>66.95778648269714</v>
+        <v>65.38772178283334</v>
       </c>
       <c r="M35">
-        <v>68.1547392502243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>59.87647502215285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>13.64657688140869</v>
+        <v>13.88804721832275</v>
       </c>
       <c r="C36">
-        <v>13.64657688140869</v>
+        <v>13.88804721832275</v>
       </c>
       <c r="D36">
-        <v>13.00411891937256</v>
+        <v>12.87715244293213</v>
       </c>
       <c r="E36">
-        <v>13.18828201293945</v>
+        <v>12.9769926071167</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>12130816</v>
       </c>
       <c r="G36">
-        <v>12.53972834217929</v>
+        <v>12.84502326895718</v>
       </c>
       <c r="H36">
-        <v>12.91801838874817</v>
+        <v>12.32128944396973</v>
       </c>
       <c r="I36">
-        <v>11.82339760462443</v>
+        <v>12.73120603561401</v>
       </c>
       <c r="L36">
-        <v>56.36333591249376</v>
+        <v>52.51856406984055</v>
       </c>
       <c r="M36">
-        <v>60.97042116402042</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>50.87457800592676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>13.19471740722656</v>
+        <v>12.99422073364258</v>
       </c>
       <c r="C37">
-        <v>14.9994068145752</v>
+        <v>13.23512363433838</v>
       </c>
       <c r="D37">
-        <v>13.08922004699707</v>
+        <v>12.64738368988037</v>
       </c>
       <c r="E37">
-        <v>14.59355735778809</v>
+        <v>12.84194183349609</v>
       </c>
       <c r="F37">
-        <v>121376000</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>12.72644007087099</v>
+        <v>12.84474313846072</v>
       </c>
       <c r="H37">
-        <v>13.14467344284058</v>
+        <v>12.36400742530823</v>
       </c>
       <c r="I37">
-        <v>11.96606693267822</v>
+        <v>12.66930742263794</v>
       </c>
       <c r="L37">
-        <v>71.79406805435409</v>
+        <v>50.83994122860402</v>
       </c>
       <c r="M37">
-        <v>71.06544223432184</v>
-      </c>
-      <c r="O37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>49.67523319126892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>14.58556365966797</v>
+        <v>12.8120756149292</v>
       </c>
       <c r="C38">
-        <v>14.81227397918701</v>
+        <v>12.84272480010986</v>
       </c>
       <c r="D38">
-        <v>13.9089298248291</v>
+        <v>12.3609504699707</v>
       </c>
       <c r="E38">
-        <v>13.95055770874023</v>
+        <v>12.41219902038574</v>
       </c>
       <c r="F38">
-        <v>43975808</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>12.83772349249547</v>
+        <v>12.80542094590845</v>
       </c>
       <c r="H38">
-        <v>13.27879056930542</v>
+        <v>12.37839894294739</v>
       </c>
       <c r="I38">
-        <v>12.1046412785848</v>
+        <v>12.61260487238566</v>
       </c>
       <c r="L38">
-        <v>60.73807310619229</v>
+        <v>45.62006448360101</v>
       </c>
       <c r="M38">
-        <v>63.03188893190969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>45.96210943816006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>13.95480060577393</v>
+        <v>12.41326332092285</v>
       </c>
       <c r="C39">
-        <v>14.50806999206543</v>
+        <v>12.74100017547607</v>
       </c>
       <c r="D39">
-        <v>13.77011585235596</v>
+        <v>12.20790672302246</v>
       </c>
       <c r="E39">
-        <v>14.50806999206543</v>
+        <v>12.70758247375488</v>
       </c>
       <c r="F39">
-        <v>14165792</v>
+        <v>17618880</v>
       </c>
       <c r="G39">
-        <v>12.98957317427456</v>
+        <v>12.79652653934903</v>
       </c>
       <c r="H39">
-        <v>13.45692462921143</v>
+        <v>12.40250725746155</v>
       </c>
       <c r="I39">
-        <v>12.26989259719849</v>
+        <v>12.57379455566406</v>
       </c>
       <c r="L39">
-        <v>65.86549553377014</v>
+        <v>49.61991847208808</v>
       </c>
       <c r="M39">
-        <v>66.56148191049826</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>48.79527387393238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>14.51426982879639</v>
+        <v>12.72684288024902</v>
       </c>
       <c r="C40">
-        <v>16.25995445251465</v>
+        <v>13.10902500152588</v>
       </c>
       <c r="D40">
-        <v>14.50766563415527</v>
+        <v>12.62963962554932</v>
       </c>
       <c r="E40">
-        <v>15.3222484588623</v>
+        <v>12.7902364730835</v>
       </c>
       <c r="F40">
-        <v>160828288</v>
+        <v>187136</v>
       </c>
       <c r="G40">
-        <v>13.20163456378253</v>
+        <v>12.79595471514308</v>
       </c>
       <c r="H40">
-        <v>13.60387201309204</v>
+        <v>12.4335554599762</v>
       </c>
       <c r="I40">
-        <v>12.47158759435018</v>
+        <v>12.54624932607015</v>
       </c>
       <c r="L40">
-        <v>71.89553900825287</v>
+        <v>50.76004571230622</v>
       </c>
       <c r="M40">
-        <v>70.92701116677597</v>
-      </c>
-      <c r="O40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>49.59168617008937</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>15.35463047027588</v>
+        <v>12.79480171203613</v>
       </c>
       <c r="C41">
-        <v>15.61866283416748</v>
+        <v>12.97543716430664</v>
       </c>
       <c r="D41">
-        <v>14.83236122131348</v>
+        <v>12.60216999053955</v>
       </c>
       <c r="E41">
-        <v>14.87266826629639</v>
+        <v>12.69391536712646</v>
       </c>
       <c r="F41">
-        <v>46997632</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>13.35354671855652</v>
+        <v>12.78667841077793</v>
       </c>
       <c r="H41">
-        <v>13.71721873283386</v>
+        <v>12.46697368621826</v>
       </c>
       <c r="I41">
-        <v>12.65102634429932</v>
+        <v>12.51876697540283</v>
       </c>
       <c r="L41">
-        <v>64.78590197051439</v>
+        <v>49.29743454264631</v>
       </c>
       <c r="M41">
-        <v>65.81723633004546</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>48.64221126599332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>14.88219928741455</v>
+        <v>12.69724082946777</v>
       </c>
       <c r="C42">
-        <v>14.91863059997559</v>
+        <v>13.36545467376709</v>
       </c>
       <c r="D42">
-        <v>12.57009696960449</v>
+        <v>12.60669136047363</v>
       </c>
       <c r="E42">
-        <v>14.04671859741211</v>
+        <v>12.82343769073486</v>
       </c>
       <c r="F42">
-        <v>180528512</v>
+        <v>3260000</v>
       </c>
       <c r="G42">
-        <v>13.41656234390703</v>
+        <v>12.79002016350129</v>
       </c>
       <c r="H42">
-        <v>13.75140223503113</v>
+        <v>12.48810238838196</v>
       </c>
       <c r="I42">
-        <v>12.80833326975505</v>
+        <v>12.50214023590088</v>
       </c>
       <c r="L42">
-        <v>53.79178447175307</v>
+        <v>51.41522396671606</v>
       </c>
       <c r="M42">
-        <v>57.60632483661578</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>50.02772733190691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>14.04658508300781</v>
+        <v>12.82343769073486</v>
       </c>
       <c r="C43">
-        <v>14.9584379196167</v>
+        <v>12.82343769073486</v>
       </c>
       <c r="D43">
-        <v>14.00182247161865</v>
+        <v>12.18676280975342</v>
       </c>
       <c r="E43">
-        <v>14.8928337097168</v>
+        <v>12.40848350524902</v>
       </c>
       <c r="F43">
-        <v>16859904</v>
+        <v>3041408</v>
       </c>
       <c r="G43">
-        <v>13.55076883170791</v>
+        <v>12.75533501275108</v>
       </c>
       <c r="H43">
-        <v>13.82414684295654</v>
+        <v>12.49910664558411</v>
       </c>
       <c r="I43">
-        <v>12.99302012125651</v>
+        <v>12.48173271814982</v>
       </c>
       <c r="L43">
-        <v>61.35056018888645</v>
+        <v>44.68778569686692</v>
       </c>
       <c r="M43">
-        <v>62.73508525790662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>45.76777037153285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>14.891282081604</v>
+        <v>12.40255165100098</v>
       </c>
       <c r="C44">
-        <v>15.49530220031738</v>
+        <v>12.93699932098389</v>
       </c>
       <c r="D44">
-        <v>14.32073593139648</v>
+        <v>12.2946081161499</v>
       </c>
       <c r="E44">
-        <v>14.3573408126831</v>
+        <v>12.82992172241211</v>
       </c>
       <c r="F44">
-        <v>6554688</v>
+        <v>12114304</v>
       </c>
       <c r="G44">
-        <v>13.62409355725111</v>
+        <v>12.76211562272026</v>
       </c>
       <c r="H44">
-        <v>13.84568796157837</v>
+        <v>12.54409079551697</v>
       </c>
       <c r="I44">
-        <v>13.15870119730632</v>
+        <v>12.47389624913533</v>
       </c>
       <c r="L44">
-        <v>54.95054438668486</v>
+        <v>51.88154572495097</v>
       </c>
       <c r="M44">
-        <v>57.95626516133504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>50.38835096609629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>14.36814498901367</v>
+        <v>12.83023452758789</v>
       </c>
       <c r="C45">
-        <v>15.19304847717285</v>
+        <v>14.19211864471436</v>
       </c>
       <c r="D45">
-        <v>14.16213893890381</v>
+        <v>12.55178928375244</v>
       </c>
       <c r="E45">
-        <v>14.3832483291626</v>
+        <v>13.90827941894531</v>
       </c>
       <c r="F45">
-        <v>24593984</v>
+        <v>53789888</v>
       </c>
       <c r="G45">
-        <v>13.69310762742488</v>
+        <v>12.866312331468</v>
       </c>
       <c r="H45">
-        <v>13.87931327819824</v>
+        <v>12.6431788444519</v>
       </c>
       <c r="I45">
-        <v>13.30979668299357</v>
+        <v>12.49454151789347</v>
       </c>
       <c r="L45">
-        <v>55.20488619163826</v>
+        <v>64.98905521494019</v>
       </c>
       <c r="M45">
-        <v>58.12247165285198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>59.82131921940326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>14.38363742828369</v>
+        <v>13.9100341796875</v>
       </c>
       <c r="C46">
-        <v>14.8076286315918</v>
+        <v>13.91102027893066</v>
       </c>
       <c r="D46">
-        <v>14.26460361480713</v>
+        <v>13.31276035308838</v>
       </c>
       <c r="E46">
-        <v>14.41333675384522</v>
+        <v>13.48805809020996</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>5469088</v>
       </c>
       <c r="G46">
-        <v>13.758583002554</v>
+        <v>12.92283467317181</v>
       </c>
       <c r="H46">
-        <v>13.93367304801941</v>
+        <v>12.72884998321533</v>
       </c>
       <c r="I46">
-        <v>13.45669825871786</v>
+        <v>12.51099481582642</v>
       </c>
       <c r="L46">
-        <v>55.53290080368686</v>
+        <v>58.05601802863655</v>
       </c>
       <c r="M46">
-        <v>58.32850811930656</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>55.40073028382699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>14.40145778656006</v>
+        <v>13.51028728485107</v>
       </c>
       <c r="C47">
-        <v>14.49137210845947</v>
+        <v>13.53490734100342</v>
       </c>
       <c r="D47">
-        <v>13.62295341491699</v>
+        <v>12.87714862823486</v>
       </c>
       <c r="E47">
-        <v>14.02169990539551</v>
+        <v>12.88523769378662</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>15065120</v>
       </c>
       <c r="G47">
-        <v>13.78250272099414</v>
+        <v>12.91941676595497</v>
       </c>
       <c r="H47">
-        <v>13.97081499099732</v>
+        <v>12.810240650177</v>
       </c>
       <c r="I47">
-        <v>13.58873971303304</v>
+        <v>12.5409166653951</v>
       </c>
       <c r="L47">
-        <v>50.15499314452911</v>
+        <v>49.52886509826152</v>
       </c>
       <c r="M47">
-        <v>54.56537990720211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>49.72415868621372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>14.02136421203613</v>
+        <v>12.88998126983643</v>
       </c>
       <c r="C48">
-        <v>14.89721012115478</v>
+        <v>13.46323585510254</v>
       </c>
       <c r="D48">
-        <v>14.02136421203613</v>
+        <v>12.83075904846191</v>
       </c>
       <c r="E48">
-        <v>14.69890022277832</v>
+        <v>13.37146472930908</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10910368</v>
       </c>
       <c r="G48">
-        <v>13.8658115847927</v>
+        <v>12.9605120353508</v>
       </c>
       <c r="H48">
-        <v>14.0320601940155</v>
+        <v>12.94745707511902</v>
       </c>
       <c r="I48">
-        <v>13.70309588114421</v>
+        <v>12.58248653411865</v>
       </c>
       <c r="L48">
-        <v>58.05655903257086</v>
+        <v>55.46449574241343</v>
       </c>
       <c r="M48">
-        <v>59.4384331747767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>53.8331630208455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>14.71485996246338</v>
+        <v>13.37833595275879</v>
       </c>
       <c r="C49">
-        <v>14.80265712738037</v>
+        <v>13.70798683166504</v>
       </c>
       <c r="D49">
-        <v>14.1132755279541</v>
+        <v>12.87889194488525</v>
       </c>
       <c r="E49">
-        <v>14.1132755279541</v>
+        <v>12.94447231292725</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>22127936</v>
       </c>
       <c r="G49">
-        <v>13.88830830689828</v>
+        <v>12.95905387876684</v>
       </c>
       <c r="H49">
-        <v>14.04250583648682</v>
+        <v>13.046413230896</v>
       </c>
       <c r="I49">
-        <v>13.80869210561116</v>
+        <v>12.60645507176717</v>
       </c>
       <c r="L49">
-        <v>50.29930147677145</v>
+        <v>49.69104447435703</v>
       </c>
       <c r="M49">
-        <v>54.04057882193833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>49.97074876269944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>14.10929489135742</v>
+        <v>12.9632682800293</v>
       </c>
       <c r="C50">
-        <v>14.27304363250732</v>
+        <v>13.15032863616943</v>
       </c>
       <c r="D50">
-        <v>13.86556911468506</v>
+        <v>12.78723812103272</v>
       </c>
       <c r="E50">
-        <v>13.87189197540283</v>
+        <v>13.13386535644531</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>6527904</v>
       </c>
       <c r="G50">
-        <v>13.88681591312597</v>
+        <v>12.97494583128307</v>
       </c>
       <c r="H50">
-        <v>14.06675505638123</v>
+        <v>13.08703737258911</v>
       </c>
       <c r="I50">
-        <v>13.85831181208293</v>
+        <v>12.63860816955566</v>
       </c>
       <c r="L50">
-        <v>47.3646784071545</v>
+        <v>52.17515214767757</v>
       </c>
       <c r="M50">
-        <v>51.94654610666912</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>51.62852839125434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>13.87796306610107</v>
+        <v>13.12894153594971</v>
       </c>
       <c r="C51">
-        <v>14.5292911529541</v>
+        <v>13.22572326660156</v>
       </c>
       <c r="D51">
-        <v>13.60104656219482</v>
+        <v>12.8197603225708</v>
       </c>
       <c r="E51">
-        <v>13.61659336090088</v>
+        <v>13.08501625061035</v>
       </c>
       <c r="F51">
-        <v>1734368</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>13.86225022656005</v>
+        <v>12.98495223304009</v>
       </c>
       <c r="H51">
-        <v>14.09044842720032</v>
+        <v>13.07971482276917</v>
       </c>
       <c r="I51">
-        <v>13.89200712839762</v>
+        <v>12.6739236831665</v>
       </c>
       <c r="L51">
-        <v>44.29006844208033</v>
+        <v>51.43817204970963</v>
       </c>
       <c r="M51">
-        <v>49.75076666507343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>51.157669445789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>13.6185712814331</v>
+        <v>13.08809185028076</v>
       </c>
       <c r="C52">
-        <v>13.66095638275146</v>
+        <v>13.1016435623169</v>
       </c>
       <c r="D52">
-        <v>13.33451557159424</v>
+        <v>12.72046756744385</v>
       </c>
       <c r="E52">
-        <v>13.518385887146</v>
+        <v>12.82501220703125</v>
       </c>
       <c r="F52">
-        <v>5527072</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>13.83098983206786</v>
+        <v>12.97041223067565</v>
       </c>
       <c r="H52">
-        <v>14.11830930709839</v>
+        <v>13.04323024749756</v>
       </c>
       <c r="I52">
-        <v>13.89718503952026</v>
+        <v>12.68806196848552</v>
       </c>
       <c r="L52">
-        <v>43.07986502304801</v>
+        <v>47.4268091932551</v>
       </c>
       <c r="M52">
-        <v>48.89457018993373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>48.61617017181095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>13.51909255981445</v>
+        <v>12.81363105773926</v>
       </c>
       <c r="C53">
-        <v>13.63691139221191</v>
+        <v>12.92907428741455</v>
       </c>
       <c r="D53">
-        <v>13.25142478942871</v>
+        <v>12.5374116897583</v>
       </c>
       <c r="E53">
-        <v>13.32223987579346</v>
+        <v>12.57415294647217</v>
       </c>
       <c r="F53">
-        <v>865792</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>13.78473983604292</v>
+        <v>12.93438865938443</v>
       </c>
       <c r="H53">
-        <v>14.13508234024048</v>
+        <v>12.98704671859741</v>
       </c>
       <c r="I53">
-        <v>13.89332831700643</v>
+        <v>12.70092045466105</v>
       </c>
       <c r="L53">
-        <v>40.58793174673414</v>
+        <v>43.72559115682581</v>
       </c>
       <c r="M53">
-        <v>47.14927728574427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>46.22980961316071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>13.32144165039062</v>
+        <v>12.57695388793945</v>
       </c>
       <c r="C54">
-        <v>13.55075168609619</v>
+        <v>12.91726779937744</v>
       </c>
       <c r="D54">
-        <v>12.8065824508667</v>
+        <v>12.44749164581299</v>
       </c>
       <c r="E54">
-        <v>13.02070903778076</v>
+        <v>12.8913745880127</v>
       </c>
       <c r="F54">
-        <v>11312032</v>
+        <v>151488</v>
       </c>
       <c r="G54">
-        <v>13.71528249074636</v>
+        <v>12.93047828925972</v>
       </c>
       <c r="H54">
-        <v>14.11790404319763</v>
+        <v>12.97371382713318</v>
       </c>
       <c r="I54">
-        <v>13.86313467025757</v>
+        <v>12.73295831680298</v>
       </c>
       <c r="L54">
-        <v>36.89683084977145</v>
+        <v>49.3489338059772</v>
       </c>
       <c r="M54">
-        <v>44.51849390009471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>49.59890018311606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>13.03884410858154</v>
+        <v>12.88678646087646</v>
       </c>
       <c r="C55">
-        <v>13.17267608642578</v>
+        <v>13.02764701843262</v>
       </c>
       <c r="D55">
-        <v>12.74833869934082</v>
+        <v>12.4220495223999</v>
       </c>
       <c r="E55">
-        <v>13.06501579284668</v>
+        <v>12.44192028045654</v>
       </c>
       <c r="F55">
-        <v>309904</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>13.65616733639184</v>
+        <v>12.88606392482307</v>
       </c>
       <c r="H55">
-        <v>14.08887867927551</v>
+        <v>12.9016782283783</v>
       </c>
       <c r="I55">
-        <v>13.84161046346029</v>
+        <v>12.75013837814331</v>
       </c>
       <c r="L55">
-        <v>37.83141987363341</v>
+        <v>42.56863825853126</v>
       </c>
       <c r="M55">
-        <v>45.00407686181518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>45.27080547185133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>13.06758308410644</v>
+        <v>12.44309139251709</v>
       </c>
       <c r="C56">
-        <v>13.37004089355469</v>
+        <v>12.66685199737549</v>
       </c>
       <c r="D56">
-        <v>13.03662776947022</v>
+        <v>12.10581970214844</v>
       </c>
       <c r="E56">
-        <v>13.28892135620117</v>
+        <v>12.32886219024658</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>15482832</v>
       </c>
       <c r="G56">
-        <v>13.62278133819269</v>
+        <v>12.83540922167975</v>
       </c>
       <c r="H56">
-        <v>14.0939106464386</v>
+        <v>12.86927170753479</v>
       </c>
       <c r="I56">
-        <v>13.84036979675293</v>
+        <v>12.76861260732015</v>
       </c>
       <c r="L56">
-        <v>42.6595407551125</v>
+        <v>40.97546375079783</v>
       </c>
       <c r="M56">
-        <v>47.50451862393822</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>44.22537062548712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>13.29518127441406</v>
+        <v>12.32878684997559</v>
       </c>
       <c r="C57">
-        <v>13.30610370635986</v>
+        <v>12.56307983398438</v>
       </c>
       <c r="D57">
-        <v>12.80375480651856</v>
+        <v>11.99153804779053</v>
       </c>
       <c r="E57">
-        <v>12.99445915222168</v>
+        <v>12.24442958831787</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>13818928</v>
       </c>
       <c r="G57">
-        <v>13.56566113946805</v>
+        <v>12.78168380046504</v>
       </c>
       <c r="H57">
-        <v>14.01395573616028</v>
+        <v>12.83939609527588</v>
       </c>
       <c r="I57">
-        <v>13.83088973363241</v>
+        <v>12.80151278177897</v>
       </c>
       <c r="L57">
-        <v>38.26306994305055</v>
+        <v>39.72631844288289</v>
       </c>
       <c r="M57">
-        <v>44.63063815229673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>43.41896886554628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>12.99832439422607</v>
+        <v>12.23910427093506</v>
       </c>
       <c r="C58">
-        <v>13.17504405975342</v>
+        <v>12.67937278747559</v>
       </c>
       <c r="D58">
-        <v>11.78354072570801</v>
+        <v>11.89570426940918</v>
       </c>
       <c r="E58">
-        <v>11.98758220672607</v>
+        <v>12.49135875701904</v>
       </c>
       <c r="F58">
-        <v>13480080</v>
+        <v>7658992</v>
       </c>
       <c r="G58">
-        <v>13.42219941830969</v>
+        <v>12.75529061469722</v>
       </c>
       <c r="H58">
-        <v>13.91580696105957</v>
+        <v>12.84335408210754</v>
       </c>
       <c r="I58">
-        <v>13.78134260177612</v>
+        <v>12.86365353266398</v>
       </c>
       <c r="L58">
-        <v>27.40026211088386</v>
+        <v>45.22071713089476</v>
       </c>
       <c r="M58">
-        <v>36.49948657520303</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>46.49185712776673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>11.99484062194824</v>
+        <v>12.49929428100586</v>
       </c>
       <c r="C59">
-        <v>12.3157148361206</v>
+        <v>13.2091875076294</v>
       </c>
       <c r="D59">
-        <v>11.97844314575195</v>
+        <v>12.42446041107178</v>
       </c>
       <c r="E59">
-        <v>12.12436866760254</v>
+        <v>12.97182464599609</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>15757776</v>
       </c>
       <c r="G59">
-        <v>13.30421480460904</v>
+        <v>12.77497552663348</v>
       </c>
       <c r="H59">
-        <v>13.79662189483643</v>
+        <v>12.8565661907196</v>
       </c>
       <c r="I59">
-        <v>13.72200946807861</v>
+        <v>12.9305360476176</v>
       </c>
       <c r="L59">
-        <v>30.41931168445907</v>
+        <v>54.33318240711323</v>
       </c>
       <c r="M59">
-        <v>38.14811690863538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>51.95902684668778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>12.12375259399414</v>
+        <v>12.9717493057251</v>
       </c>
       <c r="C60">
-        <v>12.44388198852539</v>
+        <v>13.35596179962158</v>
       </c>
       <c r="D60">
-        <v>11.91356945037842</v>
+        <v>12.77174472808838</v>
       </c>
       <c r="E60">
-        <v>12.22541618347168</v>
+        <v>12.84309005737305</v>
       </c>
       <c r="F60">
-        <v>2390304</v>
+        <v>16254928</v>
       </c>
       <c r="G60">
-        <v>13.20614220268746</v>
+        <v>12.78116775670071</v>
       </c>
       <c r="H60">
-        <v>13.64178028106689</v>
+        <v>12.85920886993408</v>
       </c>
       <c r="I60">
-        <v>13.68329308827718</v>
+        <v>12.94792629877726</v>
       </c>
       <c r="L60">
-        <v>32.7436717038673</v>
+        <v>51.73887328485912</v>
       </c>
       <c r="M60">
-        <v>39.39978004499365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>50.47102930836567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>12.22316265106201</v>
+        <v>12.84732532501221</v>
       </c>
       <c r="C61">
-        <v>12.28510284423828</v>
+        <v>12.93423175811768</v>
       </c>
       <c r="D61">
-        <v>12.02693748474121</v>
+        <v>12.57146835327148</v>
       </c>
       <c r="E61">
-        <v>12.16927242279053</v>
+        <v>12.7961835861206</v>
       </c>
       <c r="F61">
-        <v>169296</v>
+        <v>479264</v>
       </c>
       <c r="G61">
-        <v>13.11188131360592</v>
+        <v>12.78253283210252</v>
       </c>
       <c r="H61">
-        <v>13.5066104888916</v>
+        <v>12.86432228088379</v>
       </c>
       <c r="I61">
-        <v>13.6508446375529</v>
+        <v>12.93341684341431</v>
       </c>
       <c r="L61">
-        <v>32.07394829135522</v>
+        <v>50.74565327028831</v>
       </c>
       <c r="M61">
-        <v>38.92841025469023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>49.91017189316643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>12.17146587371826</v>
+        <v>12.7961835861206</v>
       </c>
       <c r="C62">
-        <v>12.20503616333008</v>
+        <v>13.01387596130371</v>
       </c>
       <c r="D62">
-        <v>11.91003131866455</v>
+        <v>12.61462593078613</v>
       </c>
       <c r="E62">
-        <v>12.02555084228516</v>
+        <v>13.01387596130371</v>
       </c>
       <c r="F62">
-        <v>9002896</v>
+        <v>5682704</v>
       </c>
       <c r="G62">
-        <v>13.0131239980313</v>
+        <v>12.80356402566627</v>
       </c>
       <c r="H62">
-        <v>13.40555210113525</v>
+        <v>12.87384419441223</v>
       </c>
       <c r="I62">
-        <v>13.61965738932292</v>
+        <v>12.91538925170898</v>
       </c>
       <c r="L62">
-        <v>30.28977451522632</v>
+        <v>55.232622839262</v>
       </c>
       <c r="M62">
-        <v>37.68547886914705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>52.54577682460389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>12.02846050262451</v>
+        <v>13.01392841339111</v>
       </c>
       <c r="C63">
-        <v>12.49437618255615</v>
+        <v>13.12734127044678</v>
       </c>
       <c r="D63">
-        <v>12.02846050262451</v>
+        <v>12.84336376190186</v>
       </c>
       <c r="E63">
-        <v>12.40086364746094</v>
+        <v>12.91512775421143</v>
       </c>
       <c r="F63">
-        <v>15215008</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>12.95746396616127</v>
+        <v>12.81370618280673</v>
       </c>
       <c r="H63">
-        <v>13.28095359802246</v>
+        <v>12.89917640686035</v>
       </c>
       <c r="I63">
-        <v>13.60012687047323</v>
+        <v>12.8892993927002</v>
       </c>
       <c r="L63">
-        <v>40.08170059003947</v>
+        <v>52.77899764399181</v>
       </c>
       <c r="M63">
-        <v>42.81979141633495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>51.22898474996749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>12.39548587799072</v>
+        <v>12.9127607345581</v>
       </c>
       <c r="C64">
-        <v>12.74695682525635</v>
+        <v>13.6641731262207</v>
       </c>
       <c r="D64">
-        <v>12.18512725830078</v>
+        <v>12.70559406280518</v>
       </c>
       <c r="E64">
-        <v>12.18839836120606</v>
+        <v>13.48795032501221</v>
       </c>
       <c r="F64">
-        <v>1446208</v>
+        <v>28531120</v>
       </c>
       <c r="G64">
-        <v>12.88754891116534</v>
+        <v>12.87500110482542</v>
       </c>
       <c r="H64">
-        <v>13.17250647544861</v>
+        <v>12.93207783699036</v>
       </c>
       <c r="I64">
-        <v>13.56093098322551</v>
+        <v>12.90029665629069</v>
       </c>
       <c r="L64">
-        <v>36.79049930806782</v>
+        <v>63.39188108152027</v>
       </c>
       <c r="M64">
-        <v>40.77178169114404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>57.83062872528055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>12.1660566329956</v>
+        <v>13.47464466094971</v>
       </c>
       <c r="C65">
-        <v>12.26394367218018</v>
+        <v>13.8498945236206</v>
       </c>
       <c r="D65">
-        <v>11.80533599853516</v>
+        <v>13.18243312835693</v>
       </c>
       <c r="E65">
-        <v>11.93023872375488</v>
+        <v>13.65820026397705</v>
       </c>
       <c r="F65">
-        <v>2503776</v>
+        <v>19534048</v>
       </c>
       <c r="G65">
-        <v>12.80052071230985</v>
+        <v>12.94620102838465</v>
       </c>
       <c r="H65">
-        <v>13.04985599517822</v>
+        <v>12.91957387924194</v>
       </c>
       <c r="I65">
-        <v>13.5037548383077</v>
+        <v>12.89281558990479</v>
       </c>
       <c r="L65">
-        <v>33.0777383105924</v>
+        <v>65.95062433779037</v>
       </c>
       <c r="M65">
-        <v>38.37036023412942</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>59.5817620216588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>11.9284086227417</v>
+        <v>13.6555871963501</v>
       </c>
       <c r="C66">
-        <v>12.11918926239014</v>
+        <v>13.93287181854248</v>
       </c>
       <c r="D66">
-        <v>11.86845874786377</v>
+        <v>13.26411247253418</v>
       </c>
       <c r="E66">
-        <v>11.92651844024658</v>
+        <v>13.343092918396</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>6041440</v>
       </c>
       <c r="G66">
-        <v>12.7210659603041</v>
+        <v>12.98228210929478</v>
       </c>
       <c r="H66">
-        <v>12.92551507949829</v>
+        <v>12.91232562065125</v>
       </c>
       <c r="I66">
-        <v>13.46169605255127</v>
+        <v>12.90501893361409</v>
       </c>
       <c r="L66">
-        <v>33.0237092545108</v>
+        <v>57.57179823410474</v>
       </c>
       <c r="M66">
-        <v>38.33531893851558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>55.02711166644267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>11.92442417144775</v>
+        <v>13.34255695343018</v>
       </c>
       <c r="C67">
-        <v>11.97661304473877</v>
+        <v>13.38855266571045</v>
       </c>
       <c r="D67">
-        <v>11.59499073028564</v>
+        <v>13.09783458709717</v>
       </c>
       <c r="E67">
-        <v>11.77463531494141</v>
+        <v>13.18548202514648</v>
       </c>
       <c r="F67">
-        <v>9119232</v>
+        <v>4502896</v>
       </c>
       <c r="G67">
-        <v>12.63502681072567</v>
+        <v>13.00075482891766</v>
       </c>
       <c r="H67">
-        <v>12.81316184997559</v>
+        <v>12.92733783721924</v>
       </c>
       <c r="I67">
-        <v>13.36773198445638</v>
+        <v>12.91647027333577</v>
       </c>
       <c r="L67">
-        <v>30.71915543399804</v>
+        <v>53.73060444850933</v>
       </c>
       <c r="M67">
-        <v>36.85551252493799</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>52.85087429801133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>11.77398300170898</v>
+        <v>13.18855285644531</v>
       </c>
       <c r="C68">
-        <v>11.79642581939697</v>
+        <v>13.3036937713623</v>
       </c>
       <c r="D68">
-        <v>11.13198757171631</v>
+        <v>12.89176368713379</v>
       </c>
       <c r="E68">
-        <v>11.25742435455322</v>
+        <v>12.89176368713379</v>
       </c>
       <c r="F68">
-        <v>15900912</v>
+        <v>2234416</v>
       </c>
       <c r="G68">
-        <v>12.5097902238009</v>
+        <v>12.99084654330094</v>
       </c>
       <c r="H68">
-        <v>12.64108805656433</v>
+        <v>12.90335278511047</v>
       </c>
       <c r="I68">
-        <v>13.27796087265015</v>
+        <v>12.93245576222738</v>
       </c>
       <c r="L68">
-        <v>24.23898827755067</v>
+        <v>47.13709555696198</v>
       </c>
       <c r="M68">
-        <v>32.28514206431997</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>48.96453515556939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>11.26193237304688</v>
+        <v>12.89107990264893</v>
       </c>
       <c r="C69">
-        <v>11.3686056137085</v>
+        <v>13.03489398956299</v>
       </c>
       <c r="D69">
-        <v>10.42396926879883</v>
+        <v>12.61162185668945</v>
       </c>
       <c r="E69">
-        <v>10.62713623046875</v>
+        <v>12.61162185668945</v>
       </c>
       <c r="F69">
-        <v>21742544</v>
+        <v>6842864</v>
       </c>
       <c r="G69">
-        <v>12.3386398607707</v>
+        <v>12.95637157179081</v>
       </c>
       <c r="H69">
-        <v>12.46678109169006</v>
+        <v>12.88671026229858</v>
       </c>
       <c r="I69">
-        <v>13.14859641393026</v>
+        <v>12.92925707499186</v>
       </c>
       <c r="L69">
-        <v>18.80154826961406</v>
+        <v>41.65260313572588</v>
       </c>
       <c r="M69">
-        <v>27.76633681503731</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>45.52595488095909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>10.62218952178955</v>
+        <v>12.60715579986572</v>
       </c>
       <c r="C70">
-        <v>11.19753551483154</v>
+        <v>12.99376678466797</v>
       </c>
       <c r="D70">
-        <v>10.55530452728272</v>
+        <v>12.58507823944092</v>
       </c>
       <c r="E70">
-        <v>10.9653491973877</v>
+        <v>12.83843421936035</v>
       </c>
       <c r="F70">
-        <v>5987184</v>
+        <v>2992448</v>
       </c>
       <c r="G70">
-        <v>12.21379525500861</v>
+        <v>12.94564999429713</v>
       </c>
       <c r="H70">
-        <v>12.32145395278931</v>
+        <v>12.87193870544434</v>
       </c>
       <c r="I70">
-        <v>13.00336643854777</v>
+        <v>12.93086366653442</v>
       </c>
       <c r="L70">
-        <v>28.48599358666197</v>
+        <v>47.24360940929719</v>
       </c>
       <c r="M70">
-        <v>33.17161099403879</v>
-      </c>
-      <c r="N70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>48.66900058072846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>10.96585559844971</v>
+        <v>12.83787155151367</v>
       </c>
       <c r="C71">
-        <v>12.44849109649658</v>
+        <v>13.27073860168457</v>
       </c>
       <c r="D71">
-        <v>10.96470832824707</v>
+        <v>12.8217134475708</v>
       </c>
       <c r="E71">
-        <v>12.32138252258301</v>
+        <v>13.17670917510986</v>
       </c>
       <c r="F71">
-        <v>49001632</v>
+        <v>2306272</v>
       </c>
       <c r="G71">
-        <v>12.22357591569719</v>
+        <v>12.96665537437101</v>
       </c>
       <c r="H71">
-        <v>12.25669341087341</v>
+        <v>12.87652335166931</v>
       </c>
       <c r="I71">
-        <v>12.91832358042399</v>
+        <v>12.9469567934672</v>
       </c>
       <c r="L71">
-        <v>53.50109843781983</v>
+        <v>54.55079925251046</v>
       </c>
       <c r="M71">
-        <v>49.49122026405264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>53.02250262874229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>12.32160091400146</v>
+        <v>13.17537307739258</v>
       </c>
       <c r="C72">
-        <v>13.23146724700928</v>
+        <v>13.2527322769165</v>
       </c>
       <c r="D72">
-        <v>12.32160091400146</v>
+        <v>12.98354530334473</v>
       </c>
       <c r="E72">
-        <v>13.23146724700928</v>
+        <v>13.07573413848877</v>
       </c>
       <c r="F72">
-        <v>83112944</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>12.31520240036193</v>
+        <v>12.97657162565444</v>
       </c>
       <c r="H72">
-        <v>12.24234747886658</v>
+        <v>12.88905944824219</v>
       </c>
       <c r="I72">
-        <v>12.89114853541056</v>
+        <v>12.955366675059</v>
       </c>
       <c r="L72">
-        <v>63.21592484023586</v>
+        <v>52.12626342563407</v>
       </c>
       <c r="M72">
-        <v>57.06861348142175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>51.61526937865533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>13.23078441619873</v>
+        <v>13.07306575775146</v>
       </c>
       <c r="C73">
-        <v>13.84229469299316</v>
+        <v>13.25879287719727</v>
       </c>
       <c r="D73">
-        <v>12.98691654205322</v>
+        <v>12.73236751556396</v>
       </c>
       <c r="E73">
-        <v>13.55470371246338</v>
+        <v>12.80304050445557</v>
       </c>
       <c r="F73">
-        <v>90068384</v>
+        <v>2111120</v>
       </c>
       <c r="G73">
-        <v>12.4278843378257</v>
+        <v>12.96079606918182</v>
       </c>
       <c r="H73">
-        <v>12.25397067070007</v>
+        <v>12.90050382614136</v>
       </c>
       <c r="I73">
-        <v>12.84654420216878</v>
+        <v>12.96851857503255</v>
       </c>
       <c r="L73">
-        <v>66.05007114652452</v>
+        <v>45.92487450758983</v>
       </c>
       <c r="M73">
-        <v>59.39841611644074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>47.91666315463597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>13.56814193725586</v>
+        <v>12.79662322998047</v>
       </c>
       <c r="C74">
-        <v>13.81899261474609</v>
+        <v>13.18337535858154</v>
       </c>
       <c r="D74">
-        <v>13.50719451904297</v>
+        <v>12.7594165802002</v>
       </c>
       <c r="E74">
-        <v>13.6978235244751</v>
+        <v>13.01493644714356</v>
       </c>
       <c r="F74">
-        <v>28480640</v>
+        <v>6606704</v>
       </c>
       <c r="G74">
-        <v>12.54333335479382</v>
+        <v>12.96571792172379</v>
       </c>
       <c r="H74">
-        <v>12.28782639503479</v>
+        <v>12.9066819190979</v>
       </c>
       <c r="I74">
-        <v>12.82456029256185</v>
+        <v>12.9746857325236</v>
       </c>
       <c r="L74">
-        <v>67.3048792110135</v>
+        <v>51.01889955867546</v>
       </c>
       <c r="M74">
-        <v>60.42254858067098</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>50.8631181765894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>13.70750141143799</v>
+        <v>13.01474189758301</v>
       </c>
       <c r="C75">
-        <v>13.72251796722412</v>
+        <v>13.11723327636719</v>
       </c>
       <c r="D75">
-        <v>13.06124019622803</v>
+        <v>12.82221794128418</v>
       </c>
       <c r="E75">
-        <v>13.15803241729736</v>
+        <v>12.89382076263428</v>
       </c>
       <c r="F75">
-        <v>2762880</v>
+        <v>909424</v>
       </c>
       <c r="G75">
-        <v>12.59921508774869</v>
+        <v>12.95918181635202</v>
       </c>
       <c r="H75">
-        <v>12.29247722625732</v>
+        <v>12.92927694320679</v>
       </c>
       <c r="I75">
-        <v>12.78371976216634</v>
+        <v>12.9408704439799</v>
       </c>
       <c r="L75">
-        <v>58.18066260926639</v>
+        <v>48.10494020894925</v>
       </c>
       <c r="M75">
-        <v>54.80737939840353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>49.15152539526506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>13.15821647644043</v>
+        <v>12.88867092132568</v>
       </c>
       <c r="C76">
-        <v>13.91667175292969</v>
+        <v>12.92651462554932</v>
       </c>
       <c r="D76">
-        <v>13.13226890563965</v>
+        <v>12.75784969329834</v>
       </c>
       <c r="E76">
-        <v>13.8826322555542</v>
+        <v>12.90376472473144</v>
       </c>
       <c r="F76">
-        <v>23824128</v>
+        <v>552704</v>
       </c>
       <c r="G76">
-        <v>12.71588937573101</v>
+        <v>12.95414389893197</v>
       </c>
       <c r="H76">
-        <v>12.32216277122498</v>
+        <v>12.95802206993103</v>
       </c>
       <c r="I76">
-        <v>12.76602961222331</v>
+        <v>12.92139399846395</v>
       </c>
       <c r="L76">
-        <v>65.28727698424005</v>
+        <v>48.37727612038692</v>
       </c>
       <c r="M76">
-        <v>60.15971605155077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>49.30236968720262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>13.88804721832275</v>
+        <v>12.91220092773438</v>
       </c>
       <c r="C77">
-        <v>13.88804721832275</v>
+        <v>13.10905456542969</v>
       </c>
       <c r="D77">
-        <v>12.87715244293213</v>
+        <v>12.63929462432861</v>
       </c>
       <c r="E77">
-        <v>12.9769926071167</v>
+        <v>12.76901340484619</v>
       </c>
       <c r="F77">
-        <v>12130816</v>
+        <v>6661344</v>
       </c>
       <c r="G77">
-        <v>12.73962603312971</v>
+        <v>12.93731385401508</v>
       </c>
       <c r="H77">
-        <v>12.32128944396973</v>
+        <v>12.98425126075745</v>
       </c>
       <c r="I77">
-        <v>12.73120603561401</v>
+        <v>12.91751985549927</v>
       </c>
       <c r="L77">
-        <v>52.69592529010113</v>
+        <v>44.79365958639518</v>
       </c>
       <c r="M77">
-        <v>51.88817925474599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>47.25653256470948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>12.99422073364258</v>
+        <v>12.76967620849609</v>
       </c>
       <c r="C78">
-        <v>13.23512363433838</v>
+        <v>12.89219760894775</v>
       </c>
       <c r="D78">
-        <v>12.64738368988037</v>
+        <v>12.44182777404785</v>
       </c>
       <c r="E78">
-        <v>12.84194183349609</v>
+        <v>12.57309246063232</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>3790480</v>
       </c>
       <c r="G78">
-        <v>12.74892746952665</v>
+        <v>12.90420281825301</v>
       </c>
       <c r="H78">
-        <v>12.36400742530823</v>
+        <v>12.98833794593811</v>
       </c>
       <c r="I78">
-        <v>12.66930742263794</v>
+        <v>12.89090744654338</v>
       </c>
       <c r="L78">
-        <v>51.04439688617944</v>
+        <v>39.95274815068345</v>
       </c>
       <c r="M78">
-        <v>50.7672192022889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>44.37343816883593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>12.8120756149292</v>
+        <v>12.57350635528564</v>
       </c>
       <c r="C79">
-        <v>12.84272480010986</v>
+        <v>12.67809581756592</v>
       </c>
       <c r="D79">
-        <v>12.3609504699707</v>
+        <v>12.28469467163086</v>
       </c>
       <c r="E79">
-        <v>12.41219902038574</v>
+        <v>12.62041282653809</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1672608</v>
       </c>
       <c r="G79">
-        <v>12.71831579233202</v>
+        <v>12.87840372809711</v>
       </c>
       <c r="H79">
-        <v>12.37839894294739</v>
+        <v>12.97076735496521</v>
       </c>
       <c r="I79">
-        <v>12.61260487238566</v>
+        <v>12.88010546366374</v>
       </c>
       <c r="L79">
-        <v>45.89519093924343</v>
+        <v>41.66573517204114</v>
       </c>
       <c r="M79">
-        <v>47.2678948844762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>45.24238547707456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>12.41326332092285</v>
+        <v>12.62078857421875</v>
       </c>
       <c r="C80">
-        <v>12.74100017547607</v>
+        <v>12.6836633682251</v>
       </c>
       <c r="D80">
-        <v>12.20790672302246</v>
+        <v>12.48816299438477</v>
       </c>
       <c r="E80">
-        <v>12.70758247375488</v>
+        <v>12.5944356918335</v>
       </c>
       <c r="F80">
-        <v>17618880</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>12.71734003609774</v>
+        <v>12.85258845207314</v>
       </c>
       <c r="H80">
-        <v>12.40250725746155</v>
+        <v>12.95833463668823</v>
       </c>
       <c r="I80">
-        <v>12.57379455566406</v>
+        <v>12.86212447484334</v>
       </c>
       <c r="L80">
-        <v>49.81024133158143</v>
+        <v>40.94437712673739</v>
       </c>
       <c r="M80">
-        <v>49.82781301446276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>44.82839320660801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>12.72684288024902</v>
+        <v>12.59472465515137</v>
       </c>
       <c r="C81">
-        <v>13.10902500152588</v>
+        <v>12.8563117980957</v>
       </c>
       <c r="D81">
-        <v>12.62963962554932</v>
+        <v>12.52905082702637</v>
       </c>
       <c r="E81">
-        <v>12.7902364730835</v>
+        <v>12.67111587524414</v>
       </c>
       <c r="F81">
-        <v>187136</v>
+        <v>3245408</v>
       </c>
       <c r="G81">
-        <v>12.72396698491463</v>
+        <v>12.83609094508869</v>
       </c>
       <c r="H81">
-        <v>12.4335554599762</v>
+        <v>12.95208125114441</v>
       </c>
       <c r="I81">
-        <v>12.54624932607015</v>
+        <v>12.84832779566447</v>
       </c>
       <c r="L81">
-        <v>50.92804386442454</v>
+        <v>44.1550786449039</v>
       </c>
       <c r="M81">
-        <v>50.55119741421348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>46.38789603915606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>12.79480171203613</v>
+        <v>12.6747522354126</v>
       </c>
       <c r="C82">
-        <v>12.97543716430664</v>
+        <v>12.79411888122559</v>
       </c>
       <c r="D82">
-        <v>12.60216999053955</v>
+        <v>12.59464359283447</v>
       </c>
       <c r="E82">
-        <v>12.69391536712646</v>
+        <v>12.59464359283447</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12.72123501966116</v>
+        <v>12.81414118579285</v>
       </c>
       <c r="H82">
-        <v>12.46697368621826</v>
+        <v>12.93111963272095</v>
       </c>
       <c r="I82">
-        <v>12.51876697540283</v>
+        <v>12.84064884185791</v>
       </c>
       <c r="L82">
-        <v>49.4832098542977</v>
+        <v>41.61657139230007</v>
       </c>
       <c r="M82">
-        <v>49.65275198791369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>45.02113506842726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>12.69724082946777</v>
+        <v>12.59337043762207</v>
       </c>
       <c r="C83">
-        <v>13.36545467376709</v>
+        <v>12.59425640106201</v>
       </c>
       <c r="D83">
-        <v>12.60669136047363</v>
+        <v>12.27354717254639</v>
       </c>
       <c r="E83">
-        <v>12.82343769073486</v>
+        <v>12.27579689025879</v>
       </c>
       <c r="F83">
-        <v>3260000</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>12.73052617157695</v>
+        <v>12.76520079528975</v>
       </c>
       <c r="H83">
-        <v>12.48810238838196</v>
+        <v>12.89915308952332</v>
       </c>
       <c r="I83">
-        <v>12.50214023590088</v>
+        <v>12.83070363998413</v>
       </c>
       <c r="L83">
-        <v>51.5620560080249</v>
+        <v>32.77754279492419</v>
       </c>
       <c r="M83">
-        <v>50.91605509625862</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>39.76088386593934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>12.82343769073486</v>
+        <v>12.27247619628906</v>
       </c>
       <c r="C84">
-        <v>12.82343769073486</v>
+        <v>12.4500617980957</v>
       </c>
       <c r="D84">
-        <v>12.18676280975342</v>
+        <v>12.27247619628906</v>
       </c>
       <c r="E84">
-        <v>12.40848350524902</v>
+        <v>12.35508823394775</v>
       </c>
       <c r="F84">
-        <v>3041408</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>12.70124956554714</v>
+        <v>12.72791783516775</v>
       </c>
       <c r="H84">
-        <v>12.49910664558411</v>
+        <v>12.84250998497009</v>
       </c>
       <c r="I84">
-        <v>12.48173271814982</v>
+        <v>12.81282742818197</v>
       </c>
       <c r="L84">
-        <v>44.90223434384371</v>
+        <v>36.54788454429401</v>
       </c>
       <c r="M84">
-        <v>46.85939422019258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>41.58863038168942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>12.40255165100098</v>
+        <v>12.35842895507812</v>
       </c>
       <c r="C85">
-        <v>12.93699932098389</v>
+        <v>12.45181179046631</v>
       </c>
       <c r="D85">
-        <v>12.2946081161499</v>
+        <v>12.25418949127197</v>
       </c>
       <c r="E85">
-        <v>12.82992172241211</v>
+        <v>12.26178169250488</v>
       </c>
       <c r="F85">
-        <v>12114304</v>
+        <v>554352</v>
       </c>
       <c r="G85">
-        <v>12.71294703435304</v>
+        <v>12.6855418221984</v>
       </c>
       <c r="H85">
-        <v>12.54409079551697</v>
+        <v>12.77268905639648</v>
       </c>
       <c r="I85">
-        <v>12.47389624913533</v>
+        <v>12.80682280858358</v>
       </c>
       <c r="L85">
-        <v>51.98773947077412</v>
+        <v>34.02172107655185</v>
       </c>
       <c r="M85">
-        <v>51.1190277889083</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>40.0487146576316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>12.83023452758789</v>
+        <v>12.25975036621094</v>
       </c>
       <c r="C86">
-        <v>14.19211864471436</v>
+        <v>12.26789569854736</v>
       </c>
       <c r="D86">
-        <v>12.55178928375244</v>
+        <v>12.09755516052246</v>
       </c>
       <c r="E86">
-        <v>13.90827941894531</v>
+        <v>12.23456764221191</v>
       </c>
       <c r="F86">
-        <v>53789888</v>
+        <v>6395000</v>
       </c>
       <c r="G86">
-        <v>12.82161361477052</v>
+        <v>12.64454416947236</v>
       </c>
       <c r="H86">
-        <v>12.6431788444519</v>
+        <v>12.71726279258728</v>
       </c>
       <c r="I86">
-        <v>12.49454151789347</v>
+        <v>12.80367965698242</v>
       </c>
       <c r="L86">
-        <v>64.95927437910035</v>
+        <v>33.26723789462107</v>
       </c>
       <c r="M86">
-        <v>59.96255814088628</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>39.58829389945064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>13.9100341796875</v>
+        <v>12.23586463928223</v>
       </c>
       <c r="C87">
-        <v>13.91102027893066</v>
+        <v>12.31359100341797</v>
       </c>
       <c r="D87">
-        <v>13.31276035308838</v>
+        <v>12.06013584136963</v>
       </c>
       <c r="E87">
-        <v>13.48805809020996</v>
+        <v>12.11730003356934</v>
       </c>
       <c r="F87">
-        <v>5469088</v>
+        <v>105592</v>
       </c>
       <c r="G87">
-        <v>12.88219947617411</v>
+        <v>12.59661288439026</v>
       </c>
       <c r="H87">
-        <v>12.72884998321533</v>
+        <v>12.66385369300842</v>
       </c>
       <c r="I87">
-        <v>12.51099481582642</v>
+        <v>12.79944200515747</v>
       </c>
       <c r="L87">
-        <v>58.08012799288705</v>
+        <v>30.03798882284461</v>
       </c>
       <c r="M87">
-        <v>55.73116036258217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>37.58322225605656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>13.51028728485107</v>
+        <v>12.1311674118042</v>
       </c>
       <c r="C88">
-        <v>13.53490734100342</v>
+        <v>12.32930278778076</v>
       </c>
       <c r="D88">
-        <v>12.87714862823486</v>
+        <v>12.01943206787109</v>
       </c>
       <c r="E88">
-        <v>12.88523769378662</v>
+        <v>12.19620227813721</v>
       </c>
       <c r="F88">
-        <v>15065120</v>
+        <v>2660208</v>
       </c>
       <c r="G88">
-        <v>12.88247567777524</v>
+        <v>12.56021192018544</v>
       </c>
       <c r="H88">
-        <v>12.810240650177</v>
+        <v>12.62907562255859</v>
       </c>
       <c r="I88">
-        <v>12.5409166653951</v>
+        <v>12.78960345586141</v>
       </c>
       <c r="L88">
-        <v>49.60275063727956</v>
+        <v>34.82669669869092</v>
       </c>
       <c r="M88">
-        <v>50.25271014672556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>39.79279128984994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>12.88998126983643</v>
+        <v>12.19620227813721</v>
       </c>
       <c r="C89">
-        <v>13.46323585510254</v>
+        <v>12.46350765228272</v>
       </c>
       <c r="D89">
-        <v>12.83075904846191</v>
+        <v>12.16885089874268</v>
       </c>
       <c r="E89">
-        <v>13.37146472930908</v>
+        <v>12.40299701690674</v>
       </c>
       <c r="F89">
-        <v>10910368</v>
+        <v>3457912</v>
       </c>
       <c r="G89">
-        <v>12.92692922791468</v>
+        <v>12.54591965625101</v>
       </c>
       <c r="H89">
-        <v>12.94745707511902</v>
+        <v>12.61864438056946</v>
       </c>
       <c r="I89">
-        <v>12.58248653411865</v>
+        <v>12.77064253489177</v>
       </c>
       <c r="L89">
-        <v>55.49698107701818</v>
+        <v>45.7710458112905</v>
       </c>
       <c r="M89">
-        <v>54.16634226505722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>45.26206262257971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>13.37833595275879</v>
+        <v>12.39938449859619</v>
       </c>
       <c r="C90">
-        <v>13.70798683166504</v>
+        <v>12.41161918640137</v>
       </c>
       <c r="D90">
-        <v>12.87889194488525</v>
+        <v>11.90587425231934</v>
       </c>
       <c r="E90">
-        <v>12.94447231292725</v>
+        <v>11.95985507965088</v>
       </c>
       <c r="F90">
-        <v>22127936</v>
+        <v>9212344</v>
       </c>
       <c r="G90">
-        <v>12.92852405382492</v>
+        <v>12.49264105837827</v>
       </c>
       <c r="H90">
-        <v>13.046413230896</v>
+        <v>12.57471542358399</v>
       </c>
       <c r="I90">
-        <v>12.60645507176717</v>
+        <v>12.74120136896769</v>
       </c>
       <c r="L90">
-        <v>49.74872848786229</v>
+        <v>32.58112540310128</v>
       </c>
       <c r="M90">
-        <v>50.41540680687422</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>37.41787241384534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>12.9632682800293</v>
+        <v>11.96433162689209</v>
       </c>
       <c r="C91">
-        <v>13.15032863616943</v>
+        <v>12.23495388031006</v>
       </c>
       <c r="D91">
-        <v>12.78723812103272</v>
+        <v>11.83044242858887</v>
       </c>
       <c r="E91">
-        <v>13.13386535644531</v>
+        <v>12.10231971740723</v>
       </c>
       <c r="F91">
-        <v>6527904</v>
+        <v>5928168</v>
       </c>
       <c r="G91">
-        <v>12.94719144497223</v>
+        <v>12.45715730010818</v>
       </c>
       <c r="H91">
-        <v>13.08703737258911</v>
+        <v>12.52099595069885</v>
       </c>
       <c r="I91">
-        <v>12.63860816955566</v>
+        <v>12.71807257334391</v>
       </c>
       <c r="L91">
-        <v>52.21831545815692</v>
+        <v>38.94457152405857</v>
       </c>
       <c r="M91">
-        <v>52.00304774044739</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>40.9603449798596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>13.12894153594971</v>
+        <v>12.10267543792725</v>
       </c>
       <c r="C92">
-        <v>13.22572326660156</v>
+        <v>12.10267543792725</v>
       </c>
       <c r="D92">
-        <v>12.8197603225708</v>
+        <v>11.32444190979004</v>
       </c>
       <c r="E92">
-        <v>13.08501625061035</v>
+        <v>11.32444190979004</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>16550728</v>
       </c>
       <c r="G92">
-        <v>12.95972097275751</v>
+        <v>12.35418317371562</v>
       </c>
       <c r="H92">
-        <v>13.07971482276917</v>
+        <v>12.43343133926392</v>
       </c>
       <c r="I92">
-        <v>12.6739236831665</v>
+        <v>12.66175810496012</v>
       </c>
       <c r="L92">
-        <v>51.48414668789669</v>
+        <v>24.65180244416506</v>
       </c>
       <c r="M92">
-        <v>51.54462495478664</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>30.73145899434666</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>13.08809185028076</v>
+        <v>11.32840728759766</v>
       </c>
       <c r="C93">
-        <v>13.1016435623169</v>
+        <v>11.57722759246826</v>
       </c>
       <c r="D93">
-        <v>12.72046756744385</v>
+        <v>11.32840728759766</v>
       </c>
       <c r="E93">
-        <v>12.82501220703125</v>
+        <v>11.47285842895508</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>14264080</v>
       </c>
       <c r="G93">
-        <v>12.94747472132785</v>
+        <v>12.27406274237375</v>
       </c>
       <c r="H93">
-        <v>13.04323024749756</v>
+        <v>12.36692223548889</v>
       </c>
       <c r="I93">
-        <v>12.68806196848552</v>
+        <v>12.61368246078491</v>
       </c>
       <c r="L93">
-        <v>47.48637427757781</v>
+        <v>30.1539787412536</v>
       </c>
       <c r="M93">
-        <v>49.06537296609609</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>34.11229908226601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>12.81363105773926</v>
+        <v>11.4739875793457</v>
       </c>
       <c r="C94">
-        <v>12.92907428741455</v>
+        <v>11.52673625946045</v>
       </c>
       <c r="D94">
-        <v>12.5374116897583</v>
+        <v>10.89638805389404</v>
       </c>
       <c r="E94">
-        <v>12.57415294647217</v>
+        <v>11.04330158233643</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>16546016</v>
       </c>
       <c r="G94">
-        <v>12.91353637815915</v>
+        <v>12.16217536418854</v>
       </c>
       <c r="H94">
-        <v>12.98704671859741</v>
+        <v>12.26834049224854</v>
       </c>
       <c r="I94">
-        <v>12.70092045466105</v>
+        <v>12.53219416936239</v>
       </c>
       <c r="L94">
-        <v>43.79512891307551</v>
+        <v>24.36158472873694</v>
       </c>
       <c r="M94">
-        <v>46.72994090944788</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>29.60805825493264</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>12.57695388793945</v>
+        <v>11.04330158233643</v>
       </c>
       <c r="C95">
-        <v>12.91726779937744</v>
+        <v>11.32258605957031</v>
       </c>
       <c r="D95">
-        <v>12.44749164581299</v>
+        <v>11.04330158233643</v>
       </c>
       <c r="E95">
-        <v>12.8913745880127</v>
+        <v>11.16564083099365</v>
       </c>
       <c r="F95">
-        <v>151488</v>
+        <v>8083088</v>
       </c>
       <c r="G95">
-        <v>12.91152166996402</v>
+        <v>12.07158131571628</v>
       </c>
       <c r="H95">
-        <v>12.97371382713318</v>
+        <v>12.18193149566651</v>
       </c>
       <c r="I95">
-        <v>12.73295831680298</v>
+        <v>12.44910885492961</v>
       </c>
       <c r="L95">
-        <v>49.39157028370781</v>
+        <v>28.74703412329077</v>
       </c>
       <c r="M95">
-        <v>49.97271308024767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>32.34787733935536</v>
+      </c>
+      <c r="N95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>12.88678646087646</v>
+        <v>11.16798973083496</v>
       </c>
       <c r="C96">
-        <v>13.02764701843262</v>
+        <v>11.37426853179932</v>
       </c>
       <c r="D96">
-        <v>12.4220495223999</v>
+        <v>11.15655136108398</v>
       </c>
       <c r="E96">
-        <v>12.44192028045654</v>
+        <v>11.32355403900146</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1846128</v>
       </c>
       <c r="G96">
-        <v>12.86883063455425</v>
+        <v>12.00357883601493</v>
       </c>
       <c r="H96">
-        <v>12.9016782283783</v>
+        <v>12.10292096138001</v>
       </c>
       <c r="I96">
-        <v>12.75013837814331</v>
+        <v>12.38179089228312</v>
       </c>
       <c r="L96">
-        <v>42.62622271393568</v>
+        <v>34.28019289791962</v>
       </c>
       <c r="M96">
-        <v>45.72554389816839</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>35.82031041369824</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>12.44309139251709</v>
+        <v>11.32219219207764</v>
       </c>
       <c r="C97">
-        <v>12.66685199737549</v>
+        <v>11.32219219207764</v>
       </c>
       <c r="D97">
-        <v>12.10581970214844</v>
+        <v>10.84362316131592</v>
       </c>
       <c r="E97">
-        <v>12.32886219024658</v>
+        <v>10.888596534729</v>
       </c>
       <c r="F97">
-        <v>15482832</v>
+        <v>5670832</v>
       </c>
       <c r="G97">
-        <v>12.81974259416264</v>
+        <v>11.9022168086253</v>
       </c>
       <c r="H97">
-        <v>12.86927170753479</v>
+        <v>12.00890011787415</v>
       </c>
       <c r="I97">
-        <v>12.76861260732015</v>
+        <v>12.30522804260254</v>
       </c>
       <c r="L97">
-        <v>41.03560173440543</v>
+        <v>27.63126222431476</v>
       </c>
       <c r="M97">
-        <v>44.69648372024758</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>31.08719543054088</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>12.32878684997559</v>
+        <v>10.88703727722168</v>
       </c>
       <c r="C98">
-        <v>12.56307983398438</v>
+        <v>11.19394874572754</v>
       </c>
       <c r="D98">
-        <v>11.99153804779053</v>
+        <v>10.50771331787109</v>
       </c>
       <c r="E98">
-        <v>12.24442958831787</v>
+        <v>11.16714286804199</v>
       </c>
       <c r="F98">
-        <v>13818928</v>
+        <v>13416112</v>
       </c>
       <c r="G98">
-        <v>12.76744141181311</v>
+        <v>11.83539190493591</v>
       </c>
       <c r="H98">
-        <v>12.83939609527588</v>
+        <v>11.93860263824463</v>
       </c>
       <c r="I98">
-        <v>12.80151278177897</v>
+        <v>12.24774068196615</v>
       </c>
       <c r="L98">
-        <v>39.7882031868013</v>
+        <v>36.50400732510877</v>
       </c>
       <c r="M98">
-        <v>43.90186629155477</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>36.84261696809421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>12.23910427093506</v>
+        <v>11.16140270233154</v>
       </c>
       <c r="C99">
-        <v>12.67937278747559</v>
+        <v>11.28877544403076</v>
       </c>
       <c r="D99">
-        <v>11.89570426940918</v>
+        <v>11.10088157653809</v>
       </c>
       <c r="E99">
-        <v>12.49135875701904</v>
+        <v>11.20552730560303</v>
       </c>
       <c r="F99">
-        <v>7658992</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>12.74234298865002</v>
+        <v>11.77813148681474</v>
       </c>
       <c r="H99">
-        <v>12.84335408210754</v>
+        <v>11.86785836219788</v>
       </c>
       <c r="I99">
-        <v>12.86365353266398</v>
+        <v>12.2008708635966</v>
       </c>
       <c r="L99">
-        <v>45.26268092884642</v>
+        <v>37.68837445586871</v>
       </c>
       <c r="M99">
-        <v>46.87640152925308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>37.61582097450807</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>12.49929428100586</v>
+        <v>11.20285034179688</v>
       </c>
       <c r="C100">
-        <v>13.2091875076294</v>
+        <v>11.45237064361572</v>
       </c>
       <c r="D100">
-        <v>12.42446041107178</v>
+        <v>11.13670921325684</v>
       </c>
       <c r="E100">
-        <v>12.97182464599609</v>
+        <v>11.3150806427002</v>
       </c>
       <c r="F100">
-        <v>15757776</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>12.76320495749966</v>
+        <v>11.73603595553159</v>
       </c>
       <c r="H100">
-        <v>12.8565661907196</v>
+        <v>11.80389060974121</v>
       </c>
       <c r="I100">
-        <v>12.9305360476176</v>
+        <v>12.15009241104126</v>
       </c>
       <c r="L100">
-        <v>54.34840862014107</v>
+        <v>41.20941298717713</v>
       </c>
       <c r="M100">
-        <v>52.18862996864146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>39.87815828654293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>12.9717493057251</v>
+        <v>11.31728649139404</v>
       </c>
       <c r="C101">
-        <v>13.35596179962158</v>
+        <v>11.33113765716553</v>
       </c>
       <c r="D101">
-        <v>12.77174472808838</v>
+        <v>11.12732601165772</v>
       </c>
       <c r="E101">
-        <v>12.84309005737305</v>
+        <v>11.12732601165772</v>
       </c>
       <c r="F101">
-        <v>16254928</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>12.77046723930633</v>
+        <v>11.6806986879067</v>
       </c>
       <c r="H101">
-        <v>12.85920886993408</v>
+        <v>11.72670111656189</v>
       </c>
       <c r="I101">
-        <v>12.94792629877726</v>
+        <v>12.08177963892619</v>
       </c>
       <c r="L101">
-        <v>51.75873485049635</v>
+        <v>37.16081633460391</v>
       </c>
       <c r="M101">
-        <v>50.72500854176782</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>37.37648235613537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>12.84732532501221</v>
+        <v>11.1281156539917</v>
       </c>
       <c r="C102">
-        <v>12.93423175811768</v>
+        <v>11.13719272613525</v>
       </c>
       <c r="D102">
-        <v>12.57146835327148</v>
+        <v>10.98497009277344</v>
       </c>
       <c r="E102">
-        <v>12.7961835861206</v>
+        <v>11.09358787536621</v>
       </c>
       <c r="F102">
-        <v>479264</v>
+        <v>2427184</v>
       </c>
       <c r="G102">
-        <v>12.77280508901672</v>
+        <v>11.62732497767574</v>
       </c>
       <c r="H102">
-        <v>12.86432228088379</v>
+        <v>11.65164833068848</v>
       </c>
       <c r="I102">
-        <v>12.93341684341431</v>
+        <v>12.0157080968221</v>
       </c>
       <c r="L102">
-        <v>50.76714739845929</v>
+        <v>36.43715479140592</v>
       </c>
       <c r="M102">
-        <v>50.17287510625606</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>36.92818208697949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>12.7961835861206</v>
+        <v>11.09609603881836</v>
       </c>
       <c r="C103">
-        <v>13.01387596130371</v>
+        <v>11.23488235473633</v>
       </c>
       <c r="D103">
-        <v>12.61462593078613</v>
+        <v>11.02008628845215</v>
       </c>
       <c r="E103">
-        <v>13.01387596130371</v>
+        <v>11.22790050506592</v>
       </c>
       <c r="F103">
-        <v>5682704</v>
+        <v>476208</v>
       </c>
       <c r="G103">
-        <v>12.79472062286099</v>
+        <v>11.59101366198394</v>
       </c>
       <c r="H103">
-        <v>12.87384419441223</v>
+        <v>11.59925351142883</v>
       </c>
       <c r="I103">
-        <v>12.91538925170898</v>
+        <v>11.96320343017578</v>
       </c>
       <c r="L103">
-        <v>55.24389521043508</v>
+        <v>41.53616449254452</v>
       </c>
       <c r="M103">
-        <v>52.74372400464135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>40.01285563489823</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>13.01392841339111</v>
+        <v>11.2191972732544</v>
       </c>
       <c r="C104">
-        <v>13.12734127044678</v>
+        <v>11.40319728851318</v>
       </c>
       <c r="D104">
-        <v>12.84336376190186</v>
+        <v>11.19038009643555</v>
       </c>
       <c r="E104">
-        <v>12.91512775421143</v>
+        <v>11.30893898010254</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>12.80566672571103</v>
+        <v>11.56537050908563</v>
       </c>
       <c r="H104">
-        <v>12.89917640686035</v>
+        <v>11.54694604873657</v>
       </c>
       <c r="I104">
-        <v>12.8892993927002</v>
+        <v>11.90633684794108</v>
       </c>
       <c r="L104">
-        <v>52.79409049460536</v>
+        <v>44.55521344818262</v>
       </c>
       <c r="M104">
-        <v>51.44701772885096</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>41.86044170643277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>12.9127607345581</v>
+        <v>11.3092212677002</v>
       </c>
       <c r="C105">
-        <v>13.6641731262207</v>
+        <v>11.73017692565918</v>
       </c>
       <c r="D105">
-        <v>12.70559406280518</v>
+        <v>11.3092212677002</v>
       </c>
       <c r="E105">
-        <v>13.48795032501221</v>
+        <v>11.42498302459717</v>
       </c>
       <c r="F105">
-        <v>28531120</v>
+        <v>5443952</v>
       </c>
       <c r="G105">
-        <v>12.86769250746568</v>
+        <v>11.55260801049577</v>
       </c>
       <c r="H105">
-        <v>12.93207783699036</v>
+        <v>11.50510611534119</v>
       </c>
       <c r="I105">
-        <v>12.90029665629069</v>
+        <v>11.85737559000651</v>
       </c>
       <c r="L105">
-        <v>63.38909344163915</v>
+        <v>48.81338705684508</v>
       </c>
       <c r="M105">
-        <v>57.91119172585491</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>44.49666301606726</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>13.47464466094971</v>
+        <v>11.42990589141846</v>
       </c>
       <c r="C106">
-        <v>13.8498945236206</v>
+        <v>11.56696319580078</v>
       </c>
       <c r="D106">
-        <v>13.18243312835693</v>
+        <v>11.37854480743408</v>
       </c>
       <c r="E106">
-        <v>13.65820026397705</v>
+        <v>11.4766960144043</v>
       </c>
       <c r="F106">
-        <v>19534048</v>
+        <v>509840</v>
       </c>
       <c r="G106">
-        <v>12.93955684896672</v>
+        <v>11.545706919942</v>
       </c>
       <c r="H106">
-        <v>12.91957387924194</v>
+        <v>11.46721253395081</v>
       </c>
       <c r="I106">
-        <v>12.89281558990479</v>
+        <v>11.80980663299561</v>
       </c>
       <c r="L106">
-        <v>65.94478098010458</v>
+        <v>50.71114446385482</v>
       </c>
       <c r="M106">
-        <v>59.63144296473212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>45.67872850780157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>13.6555871963501</v>
+        <v>11.47688579559326</v>
       </c>
       <c r="C107">
-        <v>13.93287181854248</v>
+        <v>11.47688579559326</v>
       </c>
       <c r="D107">
-        <v>13.26411247253418</v>
+        <v>11.26644706726074</v>
       </c>
       <c r="E107">
-        <v>13.343092918396</v>
+        <v>11.32188892364502</v>
       </c>
       <c r="F107">
-        <v>6041440</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>12.97624194618756</v>
+        <v>11.52535982936955</v>
       </c>
       <c r="H107">
-        <v>12.91232562065125</v>
+        <v>11.42744197845459</v>
       </c>
       <c r="I107">
-        <v>12.90501893361409</v>
+        <v>11.7615691502889</v>
       </c>
       <c r="L107">
-        <v>57.57598915144486</v>
+        <v>45.08212897583473</v>
       </c>
       <c r="M107">
-        <v>55.13940353368813</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>42.74396484264774</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>13.34255695343018</v>
+        <v>11.32179546356201</v>
       </c>
       <c r="C108">
-        <v>13.38855266571045</v>
+        <v>11.37522315979004</v>
       </c>
       <c r="D108">
-        <v>13.09783458709717</v>
+        <v>11.27315139770508</v>
       </c>
       <c r="E108">
-        <v>13.18548202514648</v>
+        <v>11.29004859924316</v>
       </c>
       <c r="F108">
-        <v>4502896</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>12.99526377154746</v>
+        <v>11.50396789935806</v>
       </c>
       <c r="H108">
-        <v>12.92733783721924</v>
+        <v>11.38213429450989</v>
       </c>
       <c r="I108">
-        <v>12.91647027333577</v>
+        <v>11.71880102157593</v>
       </c>
       <c r="L108">
-        <v>53.73849225193857</v>
+        <v>43.95322010242314</v>
       </c>
       <c r="M108">
-        <v>52.98925509964911</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>42.14421735400226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>13.18855285644531</v>
+        <v>11.29063415527344</v>
       </c>
       <c r="C109">
-        <v>13.3036937713623</v>
+        <v>11.41087532043457</v>
       </c>
       <c r="D109">
-        <v>12.89176368713379</v>
+        <v>11.25280094146728</v>
       </c>
       <c r="E109">
-        <v>12.89176368713379</v>
+        <v>11.28882789611816</v>
       </c>
       <c r="F109">
-        <v>2234416</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>12.9858546729644</v>
+        <v>11.48440971724534</v>
       </c>
       <c r="H109">
-        <v>12.90335278511047</v>
+        <v>11.32642583847046</v>
       </c>
       <c r="I109">
-        <v>12.93245576222738</v>
+        <v>11.6744148572286</v>
       </c>
       <c r="L109">
-        <v>47.15000477235829</v>
+        <v>43.9058001121706</v>
       </c>
       <c r="M109">
-        <v>49.14333285147703</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>42.11981693045771</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>12.89107990264893</v>
+        <v>11.28650283813477</v>
       </c>
       <c r="C110">
-        <v>13.03489398956299</v>
+        <v>11.30717086791992</v>
       </c>
       <c r="D110">
-        <v>12.61162185668945</v>
+        <v>11.19900035858154</v>
       </c>
       <c r="E110">
-        <v>12.61162185668945</v>
+        <v>11.28008079528809</v>
       </c>
       <c r="F110">
-        <v>6842864</v>
+        <v>77976</v>
       </c>
       <c r="G110">
-        <v>12.9518335078485</v>
+        <v>11.46583436070377</v>
       </c>
       <c r="H110">
-        <v>12.88671026229858</v>
+        <v>11.29243712425232</v>
       </c>
       <c r="I110">
-        <v>12.92925707499186</v>
+        <v>11.63060302734375</v>
       </c>
       <c r="L110">
-        <v>41.66841366127277</v>
+        <v>43.52723685468386</v>
       </c>
       <c r="M110">
-        <v>45.73389733211737</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>41.9324691433719</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>12.60715579986572</v>
+        <v>11.2833833694458</v>
       </c>
       <c r="C111">
-        <v>12.99376678466797</v>
+        <v>11.31103801727295</v>
       </c>
       <c r="D111">
-        <v>12.58507823944092</v>
+        <v>11.06546497344971</v>
       </c>
       <c r="E111">
-        <v>12.83843421936035</v>
+        <v>11.06546497344971</v>
       </c>
       <c r="F111">
-        <v>2992448</v>
+        <v>2226496</v>
       </c>
       <c r="G111">
-        <v>12.9415244816223</v>
+        <v>11.42943714368067</v>
       </c>
       <c r="H111">
-        <v>12.87193870544434</v>
+        <v>11.24059438705444</v>
       </c>
       <c r="I111">
-        <v>12.93086366653442</v>
+        <v>11.57708133061727</v>
       </c>
       <c r="L111">
-        <v>47.25384811982689</v>
+        <v>35.15947874499497</v>
       </c>
       <c r="M111">
-        <v>48.82926991865939</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>37.52249459681018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>12.83787155151367</v>
+        <v>11.0750150680542</v>
       </c>
       <c r="C112">
-        <v>13.27073860168457</v>
+        <v>11.25180149078369</v>
       </c>
       <c r="D112">
-        <v>12.8217134475708</v>
+        <v>10.98198127746582</v>
       </c>
       <c r="E112">
-        <v>13.17670917510986</v>
+        <v>11.01757526397705</v>
       </c>
       <c r="F112">
-        <v>2306272</v>
+        <v>7326116</v>
       </c>
       <c r="G112">
-        <v>12.96290490830299</v>
+        <v>11.39199515461671</v>
       </c>
       <c r="H112">
-        <v>12.87652335166931</v>
+        <v>11.22525105476379</v>
       </c>
       <c r="I112">
-        <v>12.9469567934672</v>
+        <v>11.52451238632202</v>
       </c>
       <c r="L112">
-        <v>54.55505132435774</v>
+        <v>33.54082218370943</v>
       </c>
       <c r="M112">
-        <v>53.12388022367122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>36.5975768174964</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>13.17537307739258</v>
+        <v>11.01440715789795</v>
       </c>
       <c r="C113">
-        <v>13.2527322769165</v>
+        <v>11.32250690460205</v>
       </c>
       <c r="D113">
-        <v>12.98354530334473</v>
+        <v>10.92775917053223</v>
       </c>
       <c r="E113">
-        <v>13.07573413848877</v>
+        <v>10.97559833526611</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>7953352</v>
       </c>
       <c r="G113">
-        <v>12.97316211104715</v>
+        <v>11.35414089831211</v>
       </c>
       <c r="H113">
-        <v>12.88905944824219</v>
+        <v>11.20038805007935</v>
       </c>
       <c r="I113">
-        <v>12.955366675059</v>
+        <v>11.48117243448893</v>
       </c>
       <c r="L113">
-        <v>52.13177540728895</v>
+        <v>32.08427199613327</v>
       </c>
       <c r="M113">
-        <v>51.72828621734272</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>35.76537745714674</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>13.07306575775146</v>
+        <v>10.97555351257324</v>
       </c>
       <c r="C114">
-        <v>13.25879287719727</v>
+        <v>10.97555351257324</v>
       </c>
       <c r="D114">
-        <v>12.73236751556396</v>
+        <v>10.65306854248047</v>
       </c>
       <c r="E114">
-        <v>12.80304050445557</v>
+        <v>10.84173583984375</v>
       </c>
       <c r="F114">
-        <v>2111120</v>
+        <v>7891160</v>
       </c>
       <c r="G114">
-        <v>12.95769651044792</v>
+        <v>11.30755862026953</v>
       </c>
       <c r="H114">
-        <v>12.90050382614136</v>
+        <v>11.19030976295471</v>
       </c>
       <c r="I114">
-        <v>12.96851857503255</v>
+        <v>11.43072735468547</v>
       </c>
       <c r="L114">
-        <v>45.93299610080827</v>
+        <v>27.75949179901774</v>
       </c>
       <c r="M114">
-        <v>48.05658073854764</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>33.17469089762493</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>12.79662322998047</v>
+        <v>10.83339595794678</v>
       </c>
       <c r="C115">
-        <v>13.18337535858154</v>
+        <v>11.04099941253662</v>
       </c>
       <c r="D115">
-        <v>12.7594165802002</v>
+        <v>10.60123252868652</v>
       </c>
       <c r="E115">
-        <v>13.01493644714356</v>
+        <v>10.75270080566406</v>
       </c>
       <c r="F115">
-        <v>6606704</v>
+        <v>11172984</v>
       </c>
       <c r="G115">
-        <v>12.96290014105661</v>
+        <v>11.25711700075994</v>
       </c>
       <c r="H115">
-        <v>12.9066819190979</v>
+        <v>11.16966276168823</v>
       </c>
       <c r="I115">
-        <v>12.9746857325236</v>
+        <v>11.38042465845744</v>
       </c>
       <c r="L115">
-        <v>51.02382697695619</v>
+        <v>25.21614767939331</v>
       </c>
       <c r="M115">
-        <v>50.96892991671609</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>31.53833589028581</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>13.01474189758301</v>
+        <v>10.75307369232178</v>
       </c>
       <c r="C116">
-        <v>13.11723327636719</v>
+        <v>10.85322284698486</v>
       </c>
       <c r="D116">
-        <v>12.82221794128418</v>
+        <v>10.41024208068848</v>
       </c>
       <c r="E116">
-        <v>12.89382076263428</v>
+        <v>10.5615348815918</v>
       </c>
       <c r="F116">
-        <v>909424</v>
+        <v>12649304</v>
       </c>
       <c r="G116">
-        <v>12.95662019756367</v>
+        <v>11.19388226265375</v>
       </c>
       <c r="H116">
-        <v>12.92927694320679</v>
+        <v>11.13156180381775</v>
       </c>
       <c r="I116">
-        <v>12.9408704439799</v>
+        <v>11.3246568997701</v>
       </c>
       <c r="L116">
-        <v>48.11089672081817</v>
+        <v>20.64684967699962</v>
       </c>
       <c r="M116">
-        <v>49.26855320241456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>28.30955935533605</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>12.88867092132568</v>
+        <v>10.56336307525635</v>
       </c>
       <c r="C117">
-        <v>12.92651462554932</v>
+        <v>10.85088920593262</v>
       </c>
       <c r="D117">
-        <v>12.75784969329834</v>
+        <v>10.43412685394287</v>
       </c>
       <c r="E117">
-        <v>12.90376472473144</v>
+        <v>10.46146774291992</v>
       </c>
       <c r="F117">
-        <v>552704</v>
+        <v>7377472</v>
       </c>
       <c r="G117">
-        <v>12.95181515457892</v>
+        <v>11.12729912449612</v>
       </c>
       <c r="H117">
-        <v>12.95802206993103</v>
+        <v>11.11020536422729</v>
       </c>
       <c r="I117">
-        <v>12.92139399846395</v>
+        <v>11.26946249008179</v>
       </c>
       <c r="L117">
-        <v>48.38307956137849</v>
+        <v>18.65606489953049</v>
       </c>
       <c r="M117">
-        <v>49.41775754646749</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>26.76490738182454</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>12.91220092773438</v>
+        <v>10.46024703979492</v>
       </c>
       <c r="C118">
-        <v>13.10905456542969</v>
+        <v>10.69085025787354</v>
       </c>
       <c r="D118">
-        <v>12.63929462432861</v>
+        <v>10.37935829162598</v>
       </c>
       <c r="E118">
-        <v>12.76901340484619</v>
+        <v>10.68252754211426</v>
       </c>
       <c r="F118">
-        <v>6661344</v>
+        <v>38584</v>
       </c>
       <c r="G118">
-        <v>12.93519681369413</v>
+        <v>11.08686534427959</v>
       </c>
       <c r="H118">
-        <v>12.98425126075745</v>
+        <v>11.08597459793091</v>
       </c>
       <c r="I118">
-        <v>12.91751985549927</v>
+        <v>11.21900666554769</v>
       </c>
       <c r="L118">
-        <v>44.80051769268636</v>
+        <v>34.38047639501053</v>
       </c>
       <c r="M118">
-        <v>47.38402239346012</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>35.17915339887537</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>12.76967620849609</v>
+        <v>10.67752742767334</v>
       </c>
       <c r="C119">
-        <v>12.89219760894775</v>
+        <v>10.76747703552246</v>
       </c>
       <c r="D119">
-        <v>12.44182777404785</v>
+        <v>10.29189586639404</v>
       </c>
       <c r="E119">
-        <v>12.57309246063232</v>
+        <v>10.31452655792236</v>
       </c>
       <c r="F119">
-        <v>3790480</v>
+        <v>1619344</v>
       </c>
       <c r="G119">
-        <v>12.90227823614305</v>
+        <v>11.01665272733803</v>
       </c>
       <c r="H119">
-        <v>12.98833794593811</v>
+        <v>11.04142456054688</v>
       </c>
       <c r="I119">
-        <v>12.89090744654338</v>
+        <v>11.14939098358154</v>
       </c>
       <c r="L119">
-        <v>39.9606539191734</v>
+        <v>25.24214024792775</v>
       </c>
       <c r="M119">
-        <v>44.5155192792955</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>29.17065391948647</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>12.57350635528564</v>
+        <v>10.32495498657227</v>
       </c>
       <c r="C120">
-        <v>12.67809581756592</v>
+        <v>10.40132713317871</v>
       </c>
       <c r="D120">
-        <v>12.28469467163086</v>
+        <v>9.73491382598877</v>
       </c>
       <c r="E120">
-        <v>12.62041282653809</v>
+        <v>9.792194366455078</v>
       </c>
       <c r="F120">
-        <v>1672608</v>
+        <v>30543768</v>
       </c>
       <c r="G120">
-        <v>12.87665410799715</v>
+        <v>10.90533833089412</v>
       </c>
       <c r="H120">
-        <v>12.97076735496521</v>
+        <v>10.96528024673462</v>
       </c>
       <c r="I120">
-        <v>12.88010546366374</v>
+        <v>11.07713562647502</v>
       </c>
       <c r="L120">
-        <v>41.67280064848913</v>
+        <v>17.72087705679871</v>
       </c>
       <c r="M120">
-        <v>45.3756444157551</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>23.13160103462566</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>12.62078857421875</v>
+        <v>9.797953605651855</v>
       </c>
       <c r="C121">
-        <v>12.6836633682251</v>
+        <v>10.24726486206055</v>
       </c>
       <c r="D121">
-        <v>12.48816299438477</v>
+        <v>9.577663421630859</v>
       </c>
       <c r="E121">
-        <v>12.5944356918335</v>
+        <v>10.17637538909912</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>13372736</v>
       </c>
       <c r="G121">
-        <v>12.8509978883459</v>
+        <v>10.83906897254912</v>
       </c>
       <c r="H121">
-        <v>12.95833463668823</v>
+        <v>10.91773271560669</v>
       </c>
       <c r="I121">
-        <v>12.86212447484334</v>
+        <v>11.01293748219808</v>
       </c>
       <c r="L121">
-        <v>40.95157475795613</v>
+        <v>33.99456388184276</v>
       </c>
       <c r="M121">
-        <v>44.96356710047749</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>33.96084151071365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>12.59472465515137</v>
+        <v>10.1939640045166</v>
       </c>
       <c r="C122">
-        <v>12.8563117980957</v>
+        <v>10.46085262298584</v>
       </c>
       <c r="D122">
-        <v>12.52905082702637</v>
+        <v>10.11729049682617</v>
       </c>
       <c r="E122">
-        <v>12.67111587524414</v>
+        <v>10.24287223815918</v>
       </c>
       <c r="F122">
-        <v>3245408</v>
+        <v>7020128</v>
       </c>
       <c r="G122">
-        <v>12.83464497806393</v>
+        <v>10.78486926942276</v>
       </c>
       <c r="H122">
-        <v>12.95208125114441</v>
+        <v>10.87519693374634</v>
       </c>
       <c r="I122">
-        <v>12.84832779566447</v>
+        <v>10.97688515981038</v>
       </c>
       <c r="L122">
-        <v>44.16081416641119</v>
+        <v>36.44239529069428</v>
       </c>
       <c r="M122">
-        <v>46.50783504542491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>35.65067533045816</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>12.6747522354126</v>
+        <v>10.23942756652832</v>
       </c>
       <c r="C123">
-        <v>12.79411888122559</v>
+        <v>10.54670715332031</v>
       </c>
       <c r="D123">
-        <v>12.59464359283447</v>
+        <v>10.17692852020264</v>
       </c>
       <c r="E123">
-        <v>12.59464359283447</v>
+        <v>10.47912883758545</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1042128</v>
       </c>
       <c r="G123">
-        <v>12.81282667031579</v>
+        <v>10.75707468471028</v>
       </c>
       <c r="H123">
-        <v>12.93111963272095</v>
+        <v>10.83775835037232</v>
       </c>
       <c r="I123">
-        <v>12.84064884185791</v>
+        <v>10.94376084009806</v>
       </c>
       <c r="L123">
-        <v>41.62277532975423</v>
+        <v>44.64734065006874</v>
       </c>
       <c r="M123">
-        <v>45.14729993551068</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>41.38904870309499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>12.59337043762207</v>
+        <v>10.47443008422852</v>
       </c>
       <c r="C124">
-        <v>12.59425640106201</v>
+        <v>10.64941787719727</v>
       </c>
       <c r="D124">
-        <v>12.27354717254639</v>
+        <v>10.3731517791748</v>
       </c>
       <c r="E124">
-        <v>12.27579689025879</v>
+        <v>10.37942790985107</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>2816720</v>
       </c>
       <c r="G124">
-        <v>12.7640057812197</v>
+        <v>10.72274315972307</v>
       </c>
       <c r="H124">
-        <v>12.89915308952332</v>
+        <v>10.79128279685974</v>
       </c>
       <c r="I124">
-        <v>12.83070363998413</v>
+        <v>10.92163171768189</v>
       </c>
       <c r="L124">
-        <v>32.78461814175755</v>
+        <v>42.06901209448408</v>
       </c>
       <c r="M124">
-        <v>39.90551593098682</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>39.77700495781497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>12.27247619628906</v>
+        <v>10.38326072692871</v>
       </c>
       <c r="C125">
-        <v>12.4500617980957</v>
+        <v>10.78159236907959</v>
       </c>
       <c r="D125">
-        <v>12.27247619628906</v>
+        <v>10.37140464782715</v>
       </c>
       <c r="E125">
-        <v>12.35508823394775</v>
+        <v>10.77926540374756</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>13517984</v>
       </c>
       <c r="G125">
-        <v>12.72683145874043</v>
+        <v>10.72788154554348</v>
       </c>
       <c r="H125">
-        <v>12.84250998497009</v>
+        <v>10.75899691581726</v>
       </c>
       <c r="I125">
-        <v>12.81282742818197</v>
+        <v>10.90875253677368</v>
       </c>
       <c r="L125">
-        <v>36.55368187287939</v>
+        <v>54.04283285305728</v>
       </c>
       <c r="M125">
-        <v>41.71774145618066</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>48.44863169794136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>12.35842895507812</v>
+        <v>10.77890682220459</v>
       </c>
       <c r="C126">
-        <v>12.45181179046631</v>
+        <v>10.78733539581299</v>
       </c>
       <c r="D126">
-        <v>12.25418949127197</v>
+        <v>10.52423286437988</v>
       </c>
       <c r="E126">
-        <v>12.26178169250488</v>
+        <v>10.74261283874512</v>
       </c>
       <c r="F126">
-        <v>554352</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>12.68455420726448</v>
+        <v>10.72922075401636</v>
       </c>
       <c r="H126">
-        <v>12.77268905639648</v>
+        <v>10.7222927570343</v>
       </c>
       <c r="I126">
-        <v>12.80682280858358</v>
+        <v>10.88938783009847</v>
       </c>
       <c r="L126">
-        <v>34.02766744230098</v>
+        <v>52.91492560803481</v>
       </c>
       <c r="M126">
-        <v>40.18212917979331</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>47.76959179618685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>12.25975036621094</v>
+        <v>10.74261283874512</v>
       </c>
       <c r="C127">
-        <v>12.26789569854736</v>
+        <v>11.27581691741943</v>
       </c>
       <c r="D127">
-        <v>12.09755516052246</v>
+        <v>10.69524574279785</v>
       </c>
       <c r="E127">
-        <v>12.23456764221191</v>
+        <v>11.27581691741943</v>
       </c>
       <c r="F127">
-        <v>6395000</v>
+        <v>18197424</v>
       </c>
       <c r="G127">
-        <v>12.64364633771424</v>
+        <v>10.77891131432573</v>
       </c>
       <c r="H127">
-        <v>12.71726279258728</v>
+        <v>10.71998915672302</v>
       </c>
       <c r="I127">
-        <v>12.80367965698242</v>
+        <v>10.90229517618815</v>
       </c>
       <c r="L127">
-        <v>33.27321294371752</v>
+        <v>64.90294772342813</v>
       </c>
       <c r="M127">
-        <v>39.72286024133241</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>57.17335360499802</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>12.23586463928223</v>
+        <v>11.28333377838135</v>
       </c>
       <c r="C128">
-        <v>12.31359100341797</v>
+        <v>11.35548782348633</v>
       </c>
       <c r="D128">
-        <v>12.06013584136963</v>
+        <v>11.02919292449951</v>
       </c>
       <c r="E128">
-        <v>12.11730003356934</v>
+        <v>11.26585388183594</v>
       </c>
       <c r="F128">
-        <v>105592</v>
+        <v>15683440</v>
       </c>
       <c r="G128">
-        <v>12.59579667370107</v>
+        <v>10.82317882046302</v>
       </c>
       <c r="H128">
-        <v>12.66385369300842</v>
+        <v>10.71877942085266</v>
       </c>
       <c r="I128">
-        <v>12.79944200515747</v>
+        <v>10.90558554331462</v>
       </c>
       <c r="L128">
-        <v>30.04400436540891</v>
+        <v>64.55743718612631</v>
       </c>
       <c r="M128">
-        <v>37.72208026408833</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>56.96696572500353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>12.1311674118042</v>
+        <v>11.2591381072998</v>
       </c>
       <c r="C129">
-        <v>12.32930278778076</v>
+        <v>11.68113231658936</v>
       </c>
       <c r="D129">
-        <v>12.01943206787109</v>
+        <v>11.24878978729248</v>
       </c>
       <c r="E129">
-        <v>12.19620227813721</v>
+        <v>11.56846237182617</v>
       </c>
       <c r="F129">
-        <v>2660208</v>
+        <v>19118496</v>
       </c>
       <c r="G129">
-        <v>12.55946991046799</v>
+        <v>10.89093187058694</v>
       </c>
       <c r="H129">
-        <v>12.62907562255859</v>
+        <v>10.73276114463806</v>
       </c>
       <c r="I129">
-        <v>12.78960345586141</v>
+        <v>10.91768337885539</v>
       </c>
       <c r="L129">
-        <v>34.83144355422022</v>
+        <v>70.01228033154784</v>
       </c>
       <c r="M129">
-        <v>39.91499085105961</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>61.51155836079234</v>
+      </c>
+      <c r="O129" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>12.19620227813721</v>
+        <v>11.54715633392334</v>
       </c>
       <c r="C130">
-        <v>12.46350765228272</v>
+        <v>12.1433687210083</v>
       </c>
       <c r="D130">
-        <v>12.16885089874268</v>
+        <v>11.47049617767334</v>
       </c>
       <c r="E130">
-        <v>12.40299701690674</v>
+        <v>11.8741569519043</v>
       </c>
       <c r="F130">
-        <v>3457912</v>
+        <v>28729184</v>
       </c>
       <c r="G130">
-        <v>12.54524510196242</v>
+        <v>10.98031596888852</v>
       </c>
       <c r="H130">
-        <v>12.61864438056946</v>
+        <v>10.76246495246887</v>
       </c>
       <c r="I130">
-        <v>12.77064253489177</v>
+        <v>10.93631925582886</v>
       </c>
       <c r="L130">
-        <v>45.77336586315657</v>
+        <v>74.47659601032424</v>
       </c>
       <c r="M130">
-        <v>45.34671730146302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>65.4778294842007</v>
+      </c>
+      <c r="O130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>12.39938449859619</v>
+        <v>11.87408351898193</v>
       </c>
       <c r="C131">
-        <v>12.41161918640137</v>
+        <v>11.88413047790527</v>
       </c>
       <c r="D131">
-        <v>11.90587425231934</v>
+        <v>11.45605373382568</v>
       </c>
       <c r="E131">
-        <v>11.95985507965088</v>
+        <v>11.54515075683594</v>
       </c>
       <c r="F131">
-        <v>9212344</v>
+        <v>8307056</v>
       </c>
       <c r="G131">
-        <v>12.49202782720683</v>
+        <v>11.03166458597465</v>
       </c>
       <c r="H131">
-        <v>12.57471542358399</v>
+        <v>10.78644924163818</v>
       </c>
       <c r="I131">
-        <v>12.74120136896769</v>
+        <v>10.9502467473348</v>
       </c>
       <c r="L131">
-        <v>32.58417518646177</v>
+        <v>63.10227833594449</v>
       </c>
       <c r="M131">
-        <v>37.51935893737046</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>58.49154618293402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>11.96433162689209</v>
+        <v>11.54053974151611</v>
       </c>
       <c r="C132">
-        <v>12.23495388031006</v>
+        <v>11.55979824066162</v>
       </c>
       <c r="D132">
-        <v>11.83044242858887</v>
+        <v>11.24085426330566</v>
       </c>
       <c r="E132">
-        <v>12.10231971740723</v>
+        <v>11.43227672576904</v>
       </c>
       <c r="F132">
-        <v>5928168</v>
+        <v>910208</v>
       </c>
       <c r="G132">
-        <v>12.45659981722505</v>
+        <v>11.0680838714105</v>
       </c>
       <c r="H132">
-        <v>12.52099595069885</v>
+        <v>10.80718431472778</v>
       </c>
       <c r="I132">
-        <v>12.71807257334391</v>
+        <v>10.96153637568156</v>
       </c>
       <c r="L132">
-        <v>38.94672256612166</v>
+        <v>59.58975195665768</v>
       </c>
       <c r="M132">
-        <v>41.04270899502942</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>56.27320563833965</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>12.10267543792725</v>
+        <v>11.43275356292725</v>
       </c>
       <c r="C133">
-        <v>12.10267543792725</v>
+        <v>11.4625072479248</v>
       </c>
       <c r="D133">
-        <v>11.32444190979004</v>
+        <v>11.06269073486328</v>
       </c>
       <c r="E133">
-        <v>11.32444190979004</v>
+        <v>11.08574771881104</v>
       </c>
       <c r="F133">
-        <v>16550728</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>12.35367637109459</v>
+        <v>11.06968967571964</v>
       </c>
       <c r="H133">
-        <v>12.43343133926392</v>
+        <v>10.81269178390503</v>
       </c>
       <c r="I133">
-        <v>12.66175810496012</v>
+        <v>10.95679794947306</v>
       </c>
       <c r="L133">
-        <v>24.65403269240495</v>
+        <v>49.9808033954545</v>
       </c>
       <c r="M133">
-        <v>30.82236942593053</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>50.00326126740443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>11.32840728759766</v>
+        <v>11.0845193862915</v>
       </c>
       <c r="C134">
-        <v>11.57722759246826</v>
+        <v>11.31952857971191</v>
       </c>
       <c r="D134">
-        <v>11.32840728759766</v>
+        <v>11.02307033538818</v>
       </c>
       <c r="E134">
-        <v>11.47285842895508</v>
+        <v>11.12783908843994</v>
       </c>
       <c r="F134">
-        <v>14264080</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>12.27360201271827</v>
+        <v>11.07497598596694</v>
       </c>
       <c r="H134">
-        <v>12.36692223548889</v>
+        <v>10.82699694633484</v>
       </c>
       <c r="I134">
-        <v>12.61368246078491</v>
+        <v>10.95076128641764</v>
       </c>
       <c r="L134">
-        <v>30.15573617749962</v>
+        <v>51.05920687409414</v>
       </c>
       <c r="M134">
-        <v>34.189648129</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>50.72148180400966</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>11.4739875793457</v>
+        <v>11.12933349609375</v>
       </c>
       <c r="C135">
-        <v>11.52673625946045</v>
+        <v>11.17058658599854</v>
       </c>
       <c r="D135">
-        <v>10.89638805389404</v>
+        <v>11.04879665374756</v>
       </c>
       <c r="E135">
-        <v>11.04330158233643</v>
+        <v>11.1555118560791</v>
       </c>
       <c r="F135">
-        <v>16546016</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>12.1617565190472</v>
+        <v>11.08229742870441</v>
       </c>
       <c r="H135">
-        <v>12.26834049224854</v>
+        <v>10.84713749885559</v>
       </c>
       <c r="I135">
-        <v>12.53219416936239</v>
+        <v>10.94177891413371</v>
       </c>
       <c r="L135">
-        <v>24.36326821852549</v>
+        <v>51.8273761473254</v>
       </c>
       <c r="M135">
-        <v>29.68578660539503</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>51.21764339492442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>11.04330158233643</v>
+        <v>11.14986801147461</v>
       </c>
       <c r="C136">
-        <v>11.32258605957031</v>
+        <v>11.35076332092285</v>
       </c>
       <c r="D136">
-        <v>11.04330158233643</v>
+        <v>10.97618961334228</v>
       </c>
       <c r="E136">
-        <v>11.16564083099365</v>
+        <v>11.25825023651123</v>
       </c>
       <c r="F136">
-        <v>8083088</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>12.07120054740596</v>
+        <v>11.09829313850503</v>
       </c>
       <c r="H136">
-        <v>12.1819314956665</v>
+        <v>10.88197326660156</v>
       </c>
       <c r="I136">
-        <v>12.44910885492961</v>
+        <v>10.93449738820394</v>
       </c>
       <c r="L136">
-        <v>28.74843198570264</v>
+        <v>54.7911305754189</v>
       </c>
       <c r="M136">
-        <v>32.41640816019274</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>53.10542983790312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>11.16798973083496</v>
+        <v>11.25737857818604</v>
       </c>
       <c r="C137">
-        <v>11.37426853179932</v>
+        <v>11.3173828125</v>
       </c>
       <c r="D137">
-        <v>11.15655136108398</v>
+        <v>11.14577579498291</v>
       </c>
       <c r="E137">
-        <v>11.32355403900146</v>
+        <v>11.16188430786133</v>
       </c>
       <c r="F137">
-        <v>1846128</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>12.00323268300555</v>
+        <v>11.10407415390105</v>
       </c>
       <c r="H137">
-        <v>12.10292096138</v>
+        <v>10.91699409484863</v>
       </c>
       <c r="I137">
-        <v>12.38179089228312</v>
+        <v>10.92916390101115</v>
       </c>
       <c r="L137">
-        <v>34.28126340312505</v>
+        <v>51.45088728196507</v>
       </c>
       <c r="M137">
-        <v>35.87790111239886</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>51.1076329492679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>11.32219219207764</v>
+        <v>11.16271495819092</v>
       </c>
       <c r="C138">
-        <v>11.32219219207764</v>
+        <v>11.95075702667236</v>
       </c>
       <c r="D138">
-        <v>10.84362316131592</v>
+        <v>11.1563663482666</v>
       </c>
       <c r="E138">
-        <v>10.888596534729</v>
+        <v>11.87876510620117</v>
       </c>
       <c r="F138">
-        <v>5670832</v>
+        <v>9444472</v>
       </c>
       <c r="G138">
-        <v>11.90190212407132</v>
+        <v>11.17450060411016</v>
       </c>
       <c r="H138">
-        <v>12.00890011787414</v>
+        <v>10.97680597305298</v>
       </c>
       <c r="I138">
-        <v>12.30522804260254</v>
+        <v>10.94878778457642</v>
       </c>
       <c r="L138">
-        <v>27.63233703990577</v>
+        <v>67.8526112917622</v>
       </c>
       <c r="M138">
-        <v>31.14598243898514</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>62.43049061716023</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>10.88703727722168</v>
+        <v>11.87768173217773</v>
       </c>
       <c r="C139">
-        <v>11.19394874572754</v>
+        <v>12.36652660369873</v>
       </c>
       <c r="D139">
-        <v>10.50771331787109</v>
+        <v>11.75374889373779</v>
       </c>
       <c r="E139">
-        <v>11.16714286804199</v>
+        <v>12.29769420623779</v>
       </c>
       <c r="F139">
-        <v>13416112</v>
+        <v>22633856</v>
       </c>
       <c r="G139">
-        <v>11.83510582806866</v>
+        <v>11.27660911339449</v>
       </c>
       <c r="H139">
-        <v>11.93860263824463</v>
+        <v>11.07596435546875</v>
       </c>
       <c r="I139">
-        <v>12.24774068196615</v>
+        <v>10.9824166615804</v>
       </c>
       <c r="L139">
-        <v>36.50470221916124</v>
+        <v>73.69502381814388</v>
       </c>
       <c r="M139">
-        <v>36.88670306358346</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>67.20953269895766</v>
+      </c>
+      <c r="O139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>11.16140270233154</v>
+        <v>12.29867172241211</v>
       </c>
       <c r="C140">
-        <v>11.28877544403076</v>
+        <v>12.52834701538086</v>
       </c>
       <c r="D140">
-        <v>11.10088157653809</v>
+        <v>12.15605068206787</v>
       </c>
       <c r="E140">
-        <v>11.20552730560303</v>
+        <v>12.18354892730713</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>20396400</v>
       </c>
       <c r="G140">
-        <v>11.77787141693542</v>
+        <v>11.35905818738654</v>
       </c>
       <c r="H140">
-        <v>11.86785836219788</v>
+        <v>11.19553208351135</v>
       </c>
       <c r="I140">
-        <v>12.2008708635966</v>
+        <v>11.01253226598104</v>
       </c>
       <c r="L140">
-        <v>37.68902388280724</v>
+        <v>69.8062662100287</v>
       </c>
       <c r="M140">
-        <v>37.65806783978535</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>64.79116019662789</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>11.20285034179688</v>
+        <v>12.18691349029541</v>
       </c>
       <c r="C141">
-        <v>11.45237064361572</v>
+        <v>12.33382987976074</v>
       </c>
       <c r="D141">
-        <v>11.13670921325684</v>
+        <v>12.05564785003662</v>
       </c>
       <c r="E141">
-        <v>11.3150806427002</v>
+        <v>12.09826850891113</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>8045008</v>
       </c>
       <c r="G141">
-        <v>11.73579952836858</v>
+        <v>11.42625912570696</v>
       </c>
       <c r="H141">
-        <v>11.80389060974121</v>
+        <v>11.29162673950195</v>
       </c>
       <c r="I141">
-        <v>12.15009241104126</v>
+        <v>11.04695905049642</v>
       </c>
       <c r="L141">
-        <v>41.20993454087993</v>
+        <v>66.84168082248593</v>
       </c>
       <c r="M141">
-        <v>39.91520841483446</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>62.96814914927765</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>11.31728649139404</v>
+        <v>12.14665508270264</v>
       </c>
       <c r="C142">
-        <v>11.33113765716553</v>
+        <v>12.40680313110352</v>
       </c>
       <c r="D142">
-        <v>11.12732601165772</v>
+        <v>12.14665508270264</v>
       </c>
       <c r="E142">
-        <v>11.12732601165772</v>
+        <v>12.30374431610107</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>3856160</v>
       </c>
       <c r="G142">
-        <v>11.68048375412213</v>
+        <v>11.50603050665188</v>
       </c>
       <c r="H142">
-        <v>11.72670111656189</v>
+        <v>11.39467034339905</v>
       </c>
       <c r="I142">
-        <v>12.08177963892619</v>
+        <v>11.08983135223389</v>
       </c>
       <c r="L142">
-        <v>37.16138118836084</v>
+        <v>70.26467485126928</v>
       </c>
       <c r="M142">
-        <v>37.41501286067999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>65.48781016416817</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>11.1281156539917</v>
+        <v>12.3107213973999</v>
       </c>
       <c r="C143">
-        <v>11.13719272613525</v>
+        <v>12.46976184844971</v>
       </c>
       <c r="D143">
-        <v>10.98497009277344</v>
+        <v>12.13878726959228</v>
       </c>
       <c r="E143">
-        <v>11.09358787536621</v>
+        <v>12.44700813293457</v>
       </c>
       <c r="F143">
-        <v>2427184</v>
+        <v>6297024</v>
       </c>
       <c r="G143">
-        <v>11.62712958332614</v>
+        <v>11.59157392722303</v>
       </c>
       <c r="H143">
-        <v>11.65164833068848</v>
+        <v>11.4930643081665</v>
       </c>
       <c r="I143">
-        <v>12.0157080968221</v>
+        <v>11.1388783454895</v>
       </c>
       <c r="L143">
-        <v>36.43772521470527</v>
+        <v>72.49208242903104</v>
       </c>
       <c r="M143">
-        <v>36.96692414461006</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>67.16530131819972</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>11.09609603881836</v>
+        <v>12.45063877105713</v>
       </c>
       <c r="C144">
-        <v>11.23488235473633</v>
+        <v>12.66388511657715</v>
       </c>
       <c r="D144">
-        <v>11.02008628845215</v>
+        <v>12.1944637298584</v>
       </c>
       <c r="E144">
-        <v>11.22790050506592</v>
+        <v>12.63433456420898</v>
       </c>
       <c r="F144">
-        <v>476208</v>
+        <v>6908896</v>
       </c>
       <c r="G144">
-        <v>11.59083603075703</v>
+        <v>11.68637034876721</v>
       </c>
       <c r="H144">
-        <v>11.59925351142883</v>
+        <v>11.6058096408844</v>
       </c>
       <c r="I144">
-        <v>11.96320343017578</v>
+        <v>11.19863163630168</v>
       </c>
       <c r="L144">
-        <v>41.53658177465423</v>
+        <v>75.22233283531266</v>
       </c>
       <c r="M144">
-        <v>40.04530098477854</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>69.26867408193905</v>
+      </c>
+      <c r="O144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>11.2191972732544</v>
+        <v>12.63205242156982</v>
       </c>
       <c r="C145">
-        <v>11.40319728851318</v>
+        <v>12.83033466339111</v>
       </c>
       <c r="D145">
-        <v>11.19038009643555</v>
+        <v>12.37966346740723</v>
       </c>
       <c r="E145">
-        <v>11.30893898010254</v>
+        <v>12.83033466339111</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>11.56520902615208</v>
+        <v>11.79036710464211</v>
       </c>
       <c r="H145">
-        <v>11.54694604873657</v>
+        <v>11.70836310386658</v>
       </c>
       <c r="I145">
-        <v>11.90633684794108</v>
+        <v>11.26788609822591</v>
       </c>
       <c r="L145">
-        <v>44.55554888582155</v>
+        <v>77.81429017090599</v>
       </c>
       <c r="M145">
-        <v>41.88933208454925</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>71.33756773458278</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>11.3092212677002</v>
+        <v>12.83047294616699</v>
       </c>
       <c r="C146">
-        <v>11.73017692565918</v>
+        <v>12.98862361907959</v>
       </c>
       <c r="D146">
-        <v>11.3092212677002</v>
+        <v>12.6742353439331</v>
       </c>
       <c r="E146">
-        <v>11.42498302459717</v>
+        <v>12.73854923248291</v>
       </c>
       <c r="F146">
-        <v>5443952</v>
+        <v>1290032</v>
       </c>
       <c r="G146">
-        <v>11.5524612078289</v>
+        <v>11.87656547990036</v>
       </c>
       <c r="H146">
-        <v>11.50510611534119</v>
+        <v>11.80815992355347</v>
       </c>
       <c r="I146">
-        <v>11.85737559000651</v>
+        <v>11.34045324325561</v>
       </c>
       <c r="L146">
-        <v>48.81361822009133</v>
+        <v>73.7498693135533</v>
       </c>
       <c r="M146">
-        <v>44.52076185088905</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>68.99508099602748</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>11.42990589141846</v>
+        <v>12.73896980285644</v>
       </c>
       <c r="C147">
-        <v>11.56696319580078</v>
+        <v>12.8108549118042</v>
       </c>
       <c r="D147">
-        <v>11.37854480743408</v>
+        <v>12.65012264251709</v>
       </c>
       <c r="E147">
-        <v>11.4766960144043</v>
+        <v>12.73637390136719</v>
       </c>
       <c r="F147">
-        <v>509840</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>11.54557346297212</v>
+        <v>11.95472988185189</v>
       </c>
       <c r="H147">
-        <v>11.46721253395081</v>
+        <v>11.88118777275085</v>
       </c>
       <c r="I147">
-        <v>11.80980663299561</v>
+        <v>11.41628344853719</v>
       </c>
       <c r="L147">
-        <v>50.71133336281982</v>
+        <v>73.64730404816633</v>
       </c>
       <c r="M147">
-        <v>45.70078610002908</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>68.9373047331835</v>
+      </c>
+      <c r="O147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>11.47688579559326</v>
+        <v>12.72803497314453</v>
       </c>
       <c r="C148">
-        <v>11.47688579559326</v>
+        <v>12.9669713973999</v>
       </c>
       <c r="D148">
-        <v>11.26644706726074</v>
+        <v>12.68495559692383</v>
       </c>
       <c r="E148">
-        <v>11.32188892364502</v>
+        <v>12.82012462615967</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>5542184</v>
       </c>
       <c r="G148">
-        <v>11.52523850485148</v>
+        <v>12.03340213133442</v>
       </c>
       <c r="H148">
-        <v>11.42744197845459</v>
+        <v>11.95890130996704</v>
       </c>
       <c r="I148">
-        <v>11.7615691502889</v>
+        <v>11.48753668467204</v>
       </c>
       <c r="L148">
-        <v>45.08238575473586</v>
+        <v>75.14449556949965</v>
       </c>
       <c r="M148">
-        <v>42.76815874094518</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>69.97961139454199</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>11.32179546356201</v>
+        <v>12.82291030883789</v>
       </c>
       <c r="C149">
-        <v>11.37522315979004</v>
+        <v>12.94816493988037</v>
       </c>
       <c r="D149">
-        <v>11.27315139770508</v>
+        <v>12.63934516906738</v>
       </c>
       <c r="E149">
-        <v>11.29004859924316</v>
+        <v>12.68746662139893</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>4521304</v>
       </c>
       <c r="G149">
-        <v>11.50385760434163</v>
+        <v>12.0928625395221</v>
       </c>
       <c r="H149">
-        <v>11.38213429450989</v>
+        <v>12.01485152244568</v>
       </c>
       <c r="I149">
-        <v>11.71880102157593</v>
+        <v>11.56663468678792</v>
       </c>
       <c r="L149">
-        <v>43.95348782374845</v>
+        <v>68.23629186730749</v>
       </c>
       <c r="M149">
-        <v>42.16878785047934</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>66.19096015701874</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>11.29063415527344</v>
+        <v>12.68864345550537</v>
       </c>
       <c r="C150">
-        <v>11.41087532043457</v>
+        <v>12.89395236968994</v>
       </c>
       <c r="D150">
-        <v>11.25280094146728</v>
+        <v>12.58109283447266</v>
       </c>
       <c r="E150">
-        <v>11.28882789611816</v>
+        <v>12.68843078613281</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>164296</v>
       </c>
       <c r="G150">
-        <v>11.48430944904859</v>
+        <v>12.1470051073958</v>
       </c>
       <c r="H150">
-        <v>11.32642583847046</v>
+        <v>12.0555652141571</v>
       </c>
       <c r="I150">
-        <v>11.6744148572286</v>
+        <v>11.66317590077718</v>
       </c>
       <c r="L150">
-        <v>43.90606827360442</v>
+        <v>68.26015036700869</v>
       </c>
       <c r="M150">
-        <v>42.14440231770455</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>66.20528086232964</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>11.28650283813477</v>
+        <v>12.6890459060669</v>
       </c>
       <c r="C151">
-        <v>11.30717086791992</v>
+        <v>12.69340324401856</v>
       </c>
       <c r="D151">
-        <v>11.19900035858154</v>
+        <v>12.45398712158203</v>
       </c>
       <c r="E151">
-        <v>11.28008079528809</v>
+        <v>12.4989767074585</v>
       </c>
       <c r="F151">
-        <v>77976</v>
+        <v>385096</v>
       </c>
       <c r="G151">
-        <v>11.46574320779763</v>
+        <v>12.17900252558332</v>
       </c>
       <c r="H151">
-        <v>11.29243712425232</v>
+        <v>12.10325651168823</v>
       </c>
       <c r="I151">
-        <v>11.63060302734375</v>
+        <v>11.74059594472249</v>
       </c>
       <c r="J151">
-        <v>12.39988044102987</v>
+        <v>12.25923427581787</v>
       </c>
       <c r="L151">
-        <v>43.52750847313245</v>
+        <v>58.54005935008825</v>
       </c>
       <c r="M151">
-        <v>41.95716774021012</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>60.75923529776841</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>11.2833833694458</v>
+        <v>12.49396991729736</v>
       </c>
       <c r="C152">
-        <v>11.31103801727295</v>
+        <v>12.58628463745117</v>
       </c>
       <c r="D152">
-        <v>11.06546497344971</v>
+        <v>12.21837711334228</v>
       </c>
       <c r="E152">
-        <v>11.06546497344971</v>
+        <v>12.26620292663574</v>
       </c>
       <c r="F152">
-        <v>2226496</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>11.42935427740237</v>
+        <v>12.1869298347699</v>
       </c>
       <c r="H152">
-        <v>11.24059438705445</v>
+        <v>12.14495282173157</v>
       </c>
       <c r="I152">
-        <v>11.57708133061727</v>
+        <v>11.80804030100504</v>
       </c>
       <c r="J152">
-        <v>12.38220606397583</v>
+        <v>12.2593265758287</v>
       </c>
       <c r="L152">
-        <v>35.15980115359007</v>
+        <v>48.91269687407335</v>
       </c>
       <c r="M152">
-        <v>37.54928426276295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>54.79512898401743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>11.0750150680542</v>
+        <v>12.26821136474609</v>
       </c>
       <c r="C153">
-        <v>11.25180149078369</v>
+        <v>12.43645000457764</v>
       </c>
       <c r="D153">
-        <v>10.98198127746582</v>
+        <v>12.20190238952637</v>
       </c>
       <c r="E153">
-        <v>11.01757526397705</v>
+        <v>12.32521343231201</v>
       </c>
       <c r="F153">
-        <v>7326116</v>
+        <v>1822168</v>
       </c>
       <c r="G153">
-        <v>11.39191982163643</v>
+        <v>12.1995010709101</v>
       </c>
       <c r="H153">
-        <v>11.2252510547638</v>
+        <v>12.20692610740662</v>
       </c>
       <c r="I153">
-        <v>11.52451238632202</v>
+        <v>11.8695764541626</v>
       </c>
       <c r="J153">
-        <v>12.36413148384339</v>
+        <v>12.26019924942451</v>
       </c>
       <c r="L153">
-        <v>33.54114875770517</v>
+        <v>51.2014999891235</v>
       </c>
       <c r="M153">
-        <v>36.62466538340858</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>55.97494144374628</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>11.01440715789795</v>
+        <v>12.32721900939941</v>
       </c>
       <c r="C154">
-        <v>11.32250690460205</v>
+        <v>12.61675930023193</v>
       </c>
       <c r="D154">
-        <v>10.92775917053223</v>
+        <v>12.20965576171875</v>
       </c>
       <c r="E154">
-        <v>10.97559833526611</v>
+        <v>12.47616481781006</v>
       </c>
       <c r="F154">
-        <v>7953352</v>
+        <v>858848</v>
       </c>
       <c r="G154">
-        <v>11.35407241378458</v>
+        <v>12.22465232062827</v>
       </c>
       <c r="H154">
-        <v>11.20038805007935</v>
+        <v>12.27434239387512</v>
       </c>
       <c r="I154">
-        <v>11.48117243448893</v>
+        <v>11.9394676844279</v>
       </c>
       <c r="J154">
-        <v>12.34574031631257</v>
+        <v>12.26305972052895</v>
       </c>
       <c r="L154">
-        <v>32.08460075013971</v>
+        <v>56.77457650102215</v>
       </c>
       <c r="M154">
-        <v>35.7926935629152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>58.92796185789246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>10.97555351257324</v>
+        <v>12.47628688812256</v>
       </c>
       <c r="C155">
-        <v>10.97555351257324</v>
+        <v>12.48905754089356</v>
       </c>
       <c r="D155">
-        <v>10.65306854248047</v>
+        <v>12.19165897369385</v>
       </c>
       <c r="E155">
-        <v>10.84173583984375</v>
+        <v>12.19767951965332</v>
       </c>
       <c r="F155">
-        <v>7891160</v>
+        <v>146896</v>
       </c>
       <c r="G155">
-        <v>11.30749636160814</v>
+        <v>12.22220024781237</v>
       </c>
       <c r="H155">
-        <v>11.19030976295471</v>
+        <v>12.32645077705383</v>
       </c>
       <c r="I155">
-        <v>11.43072735468547</v>
+        <v>11.98674815495809</v>
       </c>
       <c r="J155">
-        <v>12.32581972722026</v>
+        <v>12.26219375760345</v>
       </c>
       <c r="L155">
-        <v>27.75981827196937</v>
+        <v>45.89581793418525</v>
       </c>
       <c r="M155">
-        <v>33.20246427555448</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>51.99839205663822</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>10.83339595794678</v>
+        <v>12.1969051361084</v>
       </c>
       <c r="C156">
-        <v>11.04099941253662</v>
+        <v>12.31601047515869</v>
       </c>
       <c r="D156">
-        <v>10.60123252868652</v>
+        <v>12.12508296966553</v>
       </c>
       <c r="E156">
-        <v>10.75270080566406</v>
+        <v>12.26184940338135</v>
       </c>
       <c r="F156">
-        <v>11172984</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>11.25706040197686</v>
+        <v>12.22580471650046</v>
       </c>
       <c r="H156">
-        <v>11.16966276168823</v>
+        <v>12.37663073539734</v>
       </c>
       <c r="I156">
-        <v>11.38042465845744</v>
+        <v>12.0373893737793</v>
       </c>
       <c r="J156">
-        <v>12.30498371501422</v>
+        <v>12.26218919662037</v>
       </c>
       <c r="L156">
-        <v>25.21646669505268</v>
+        <v>48.45607977519769</v>
       </c>
       <c r="M156">
-        <v>31.56620222443529</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>53.35940604461778</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>10.75307369232178</v>
+        <v>12.26244258880615</v>
       </c>
       <c r="C157">
-        <v>10.85322284698486</v>
+        <v>12.3886308670044</v>
       </c>
       <c r="D157">
-        <v>10.41024208068848</v>
+        <v>12.05719184875488</v>
       </c>
       <c r="E157">
-        <v>10.5615348815918</v>
+        <v>12.32706546783447</v>
       </c>
       <c r="F157">
-        <v>12649304</v>
+        <v>3113424</v>
       </c>
       <c r="G157">
-        <v>11.19383080921458</v>
+        <v>12.235010239349</v>
       </c>
       <c r="H157">
-        <v>11.13156180381775</v>
+        <v>12.434889793396</v>
       </c>
       <c r="I157">
-        <v>11.3246568997701</v>
+        <v>12.07243099212647</v>
       </c>
       <c r="J157">
-        <v>12.28189167748545</v>
+        <v>12.26304848498083</v>
       </c>
       <c r="L157">
-        <v>20.64714391635177</v>
+        <v>51.10167493940224</v>
       </c>
       <c r="M157">
-        <v>28.33716418885026</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>54.7632104374547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>10.56336307525635</v>
+        <v>12.34027290344238</v>
       </c>
       <c r="C158">
-        <v>10.85088920593262</v>
+        <v>12.64825248718262</v>
       </c>
       <c r="D158">
-        <v>10.43412685394287</v>
+        <v>12.30892276763916</v>
       </c>
       <c r="E158">
-        <v>10.46146774291992</v>
+        <v>12.51321792602539</v>
       </c>
       <c r="F158">
-        <v>7377472</v>
+        <v>13880992</v>
       </c>
       <c r="G158">
-        <v>11.12725234864234</v>
+        <v>12.26030184722867</v>
       </c>
       <c r="H158">
-        <v>11.1102053642273</v>
+        <v>12.46661243438721</v>
       </c>
       <c r="I158">
-        <v>11.26946249008179</v>
+        <v>12.11400979359945</v>
       </c>
       <c r="J158">
-        <v>12.25778010219319</v>
+        <v>12.26636198751122</v>
       </c>
       <c r="L158">
-        <v>18.65634377170908</v>
+        <v>58.02074023318178</v>
       </c>
       <c r="M158">
-        <v>26.79217823790306</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>58.59413223995892</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>10.46024703979492</v>
+        <v>12.51139163970947</v>
       </c>
       <c r="C159">
-        <v>10.69085025787354</v>
+        <v>12.63068580627441</v>
       </c>
       <c r="D159">
-        <v>10.37935829162598</v>
+        <v>12.47403430938721</v>
       </c>
       <c r="E159">
-        <v>10.68252754211426</v>
+        <v>12.54522132873535</v>
       </c>
       <c r="F159">
-        <v>38584</v>
+        <v>1176576</v>
       </c>
       <c r="G159">
-        <v>11.08682282077615</v>
+        <v>12.28620361827473</v>
       </c>
       <c r="H159">
-        <v>11.08597459793091</v>
+        <v>12.47898879051209</v>
       </c>
       <c r="I159">
-        <v>11.21900666554769</v>
+        <v>12.14656842549642</v>
       </c>
       <c r="J159">
-        <v>12.23691582987427</v>
+        <v>12.27005548871949</v>
       </c>
       <c r="L159">
-        <v>34.38061850481592</v>
+        <v>59.13899909789238</v>
       </c>
       <c r="M159">
-        <v>35.19764628023651</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>59.23332068129343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>10.67752742767334</v>
+        <v>12.54672431945801</v>
       </c>
       <c r="C160">
-        <v>10.76747703552246</v>
+        <v>12.62698745727539</v>
       </c>
       <c r="D160">
-        <v>10.29189586639404</v>
+        <v>12.41701316833496</v>
       </c>
       <c r="E160">
-        <v>10.31452655792236</v>
+        <v>12.43498229980469</v>
       </c>
       <c r="F160">
-        <v>1619344</v>
+        <v>4058064</v>
       </c>
       <c r="G160">
-        <v>11.01661406960762</v>
+        <v>12.29972895295928</v>
       </c>
       <c r="H160">
-        <v>11.04142456054688</v>
+        <v>12.49156045913696</v>
       </c>
       <c r="I160">
-        <v>11.14939098358154</v>
+        <v>12.16526260375977</v>
       </c>
       <c r="J160">
-        <v>12.21145372031199</v>
+        <v>12.27223994979346</v>
       </c>
       <c r="L160">
-        <v>25.24227993786654</v>
+        <v>53.60539806528905</v>
       </c>
       <c r="M160">
-        <v>29.18933402559479</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>56.0250347796182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>10.32495498657227</v>
+        <v>12.42661952972412</v>
       </c>
       <c r="C161">
-        <v>10.40132713317871</v>
+        <v>12.45255279541016</v>
       </c>
       <c r="D161">
-        <v>9.73491382598877</v>
+        <v>12.21601963043213</v>
       </c>
       <c r="E161">
-        <v>9.792194366455078</v>
+        <v>12.2754955291748</v>
       </c>
       <c r="F161">
-        <v>30543768</v>
+        <v>721576</v>
       </c>
       <c r="G161">
-        <v>10.90530318750285</v>
+        <v>12.29752591443341</v>
       </c>
       <c r="H161">
-        <v>10.96528024673462</v>
+        <v>12.50042181015015</v>
       </c>
       <c r="I161">
-        <v>11.07713562647502</v>
+        <v>12.1896074295044</v>
       </c>
       <c r="J161">
-        <v>12.17941055006223</v>
+        <v>12.27228307005017</v>
       </c>
       <c r="L161">
-        <v>17.72099555131133</v>
+        <v>46.52069184299796</v>
       </c>
       <c r="M161">
-        <v>23.14908109833112</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>51.66511635991808</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>9.797953605651855</v>
+        <v>12.27566242218018</v>
       </c>
       <c r="C162">
-        <v>10.24726486206055</v>
+        <v>12.37637233734131</v>
       </c>
       <c r="D162">
-        <v>9.577663421630859</v>
+        <v>12.12989234924316</v>
       </c>
       <c r="E162">
-        <v>10.17637538909912</v>
+        <v>12.23959159851074</v>
       </c>
       <c r="F162">
-        <v>13372736</v>
+        <v>7355744</v>
       </c>
       <c r="G162">
-        <v>10.8390370240116</v>
+        <v>12.29225915844044</v>
       </c>
       <c r="H162">
-        <v>10.91773271560669</v>
+        <v>12.49721417427063</v>
       </c>
       <c r="I162">
-        <v>11.01293748219808</v>
+        <v>12.21651792526245</v>
       </c>
       <c r="J162">
-        <v>12.1528802830296</v>
+        <v>12.27185007042713</v>
       </c>
       <c r="L162">
-        <v>33.99462348359134</v>
+        <v>45.01397869966662</v>
       </c>
       <c r="M162">
-        <v>33.9717532563675</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>50.70841091681226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>10.1939640045166</v>
+        <v>12.22969818115234</v>
       </c>
       <c r="C163">
-        <v>10.46085262298584</v>
+        <v>12.25163078308106</v>
       </c>
       <c r="D163">
-        <v>10.11729049682617</v>
+        <v>11.82198524475098</v>
       </c>
       <c r="E163">
-        <v>10.24287223815918</v>
+        <v>11.91047668457031</v>
       </c>
       <c r="F163">
-        <v>7020128</v>
+        <v>15266568</v>
       </c>
       <c r="G163">
-        <v>10.78484022529774</v>
+        <v>12.25755166081589</v>
       </c>
       <c r="H163">
-        <v>10.87519693374634</v>
+        <v>12.47038760185242</v>
       </c>
       <c r="I163">
-        <v>10.97688515981038</v>
+        <v>12.24400889078776</v>
       </c>
       <c r="J163">
-        <v>12.12758216323</v>
+        <v>12.26706366796545</v>
       </c>
       <c r="L163">
-        <v>36.44244754668053</v>
+        <v>33.743689372806</v>
       </c>
       <c r="M163">
-        <v>35.66068353958272</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <v>42.87157854466803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>10.23942756652832</v>
+        <v>11.91313362121582</v>
       </c>
       <c r="C164">
-        <v>10.54670715332031</v>
+        <v>12.05293273925781</v>
       </c>
       <c r="D164">
-        <v>10.17692852020264</v>
+        <v>11.89891910552978</v>
       </c>
       <c r="E164">
-        <v>10.47912883758545</v>
+        <v>12.02819919586182</v>
       </c>
       <c r="F164">
-        <v>1042128</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>10.75704828096026</v>
+        <v>12.23670143672915</v>
       </c>
       <c r="H164">
-        <v>10.83775835037232</v>
+        <v>12.44008083343506</v>
       </c>
       <c r="I164">
-        <v>10.94376084009806</v>
+        <v>12.27402089436849</v>
       </c>
       <c r="J164">
-        <v>12.10574834434729</v>
+        <v>12.26389990012302</v>
       </c>
       <c r="L164">
-        <v>44.64737116873801</v>
+        <v>39.80812022011261</v>
       </c>
       <c r="M164">
-        <v>41.39623331527168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>46.08150412268126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>10.47443008422852</v>
+        <v>12.02929019927978</v>
       </c>
       <c r="C165">
-        <v>10.64941787719727</v>
+        <v>12.04345512390137</v>
       </c>
       <c r="D165">
-        <v>10.3731517791748</v>
+        <v>11.69978141784668</v>
       </c>
       <c r="E165">
-        <v>10.37942790985107</v>
+        <v>11.72940540313721</v>
       </c>
       <c r="F165">
-        <v>2816720</v>
+        <v>3926712</v>
       </c>
       <c r="G165">
-        <v>10.72271915631397</v>
+        <v>12.19058361549352</v>
       </c>
       <c r="H165">
-        <v>10.79128279685974</v>
+        <v>12.38503437042236</v>
       </c>
       <c r="I165">
-        <v>10.92163171768189</v>
+        <v>12.29315067927043</v>
       </c>
       <c r="J165">
-        <v>12.08288317302946</v>
+        <v>12.25682050281195</v>
       </c>
       <c r="L165">
-        <v>42.06904528959065</v>
+        <v>31.55985866714083</v>
       </c>
       <c r="M165">
-        <v>39.78443128330277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>39.94645897056877</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>10.38326072692871</v>
+        <v>11.73310279846191</v>
       </c>
       <c r="C166">
-        <v>10.78159236907959</v>
+        <v>11.74607563018799</v>
       </c>
       <c r="D166">
-        <v>10.37140464782715</v>
+        <v>11.5488691329956</v>
       </c>
       <c r="E166">
-        <v>10.77926540374756</v>
+        <v>11.69741153717041</v>
       </c>
       <c r="F166">
-        <v>13517984</v>
+        <v>3421448</v>
       </c>
       <c r="G166">
-        <v>10.72785972426248</v>
+        <v>12.14574979019142</v>
       </c>
       <c r="H166">
-        <v>10.75899691581726</v>
+        <v>12.33297748565674</v>
       </c>
       <c r="I166">
-        <v>10.90875253677368</v>
+        <v>12.3077893892924</v>
       </c>
       <c r="J166">
-        <v>12.06561671250917</v>
+        <v>12.24941111253855</v>
       </c>
       <c r="L166">
-        <v>54.04284283366467</v>
+        <v>30.79131825518872</v>
       </c>
       <c r="M166">
-        <v>48.45258774016973</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>39.34246511720666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>10.77890682220459</v>
+        <v>11.69729995727539</v>
       </c>
       <c r="C167">
-        <v>10.78733539581299</v>
+        <v>11.8280553817749</v>
       </c>
       <c r="D167">
-        <v>10.52423286437988</v>
+        <v>11.66676330566406</v>
       </c>
       <c r="E167">
-        <v>10.74261283874512</v>
+        <v>11.76279830932617</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>428792</v>
       </c>
       <c r="G167">
-        <v>10.72920091648817</v>
+        <v>12.11093601920367</v>
       </c>
       <c r="H167">
-        <v>10.7222927570343</v>
+        <v>12.28429870605469</v>
       </c>
       <c r="I167">
-        <v>10.88938783009847</v>
+        <v>12.32781985600789</v>
       </c>
       <c r="J167">
-        <v>12.04809348239309</v>
+        <v>12.242965909847</v>
       </c>
       <c r="L167">
-        <v>52.9149368886424</v>
+        <v>34.46083011481416</v>
       </c>
       <c r="M167">
-        <v>47.77367780431395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>41.29603751014219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>10.74261283874512</v>
+        <v>11.76312065124512</v>
       </c>
       <c r="C168">
-        <v>11.27581691741943</v>
+        <v>11.76787090301514</v>
       </c>
       <c r="D168">
-        <v>10.69524574279785</v>
+        <v>11.37203407287598</v>
       </c>
       <c r="E168">
-        <v>11.27581691741943</v>
+        <v>11.51533794403076</v>
       </c>
       <c r="F168">
-        <v>18197424</v>
+        <v>2738096</v>
       </c>
       <c r="G168">
-        <v>10.77889328020919</v>
+        <v>12.0567907396425</v>
       </c>
       <c r="H168">
-        <v>10.71998915672302</v>
+        <v>12.21905937194824</v>
       </c>
       <c r="I168">
-        <v>10.90229517618815</v>
+        <v>12.31570561726888</v>
       </c>
       <c r="J168">
-        <v>12.03786465371794</v>
+        <v>12.23332845334612</v>
       </c>
       <c r="L168">
-        <v>64.90294418245526</v>
+        <v>28.11421748015428</v>
       </c>
       <c r="M168">
-        <v>57.1745987794809</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>36.50433713586475</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>11.28333377838135</v>
+        <v>11.51363754272461</v>
       </c>
       <c r="C169">
-        <v>11.35548782348633</v>
+        <v>11.8530216217041</v>
       </c>
       <c r="D169">
-        <v>11.02919292449951</v>
+        <v>11.43284893035889</v>
       </c>
       <c r="E169">
-        <v>11.26585388183594</v>
+        <v>11.79524612426758</v>
       </c>
       <c r="F169">
-        <v>15683440</v>
+        <v>990544</v>
       </c>
       <c r="G169">
-        <v>10.82316242581162</v>
+        <v>12.03301395642659</v>
       </c>
       <c r="H169">
-        <v>10.71877942085266</v>
+        <v>12.17444834709167</v>
       </c>
       <c r="I169">
-        <v>10.90558554331462</v>
+        <v>12.29895734786987</v>
       </c>
       <c r="J169">
-        <v>12.0276393454811</v>
+        <v>12.22752603839144</v>
       </c>
       <c r="L169">
-        <v>64.5574340065707</v>
+        <v>41.76258759031483</v>
       </c>
       <c r="M169">
-        <v>56.96825244545762</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>44.36761425129302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>11.2591381072998</v>
+        <v>11.80411720275879</v>
       </c>
       <c r="C170">
-        <v>11.68113231658936</v>
+        <v>11.94040203094482</v>
       </c>
       <c r="D170">
-        <v>11.24878978729248</v>
+        <v>11.7345380783081</v>
       </c>
       <c r="E170">
-        <v>11.56846237182617</v>
+        <v>11.82315921783447</v>
       </c>
       <c r="F170">
-        <v>19118496</v>
+        <v>3531800</v>
       </c>
       <c r="G170">
-        <v>10.8909169663584</v>
+        <v>12.01393625291822</v>
       </c>
       <c r="H170">
-        <v>10.73276114463806</v>
+        <v>12.13118476867676</v>
       </c>
       <c r="I170">
-        <v>10.91768337885539</v>
+        <v>12.28694435755412</v>
       </c>
       <c r="J170">
-        <v>12.0215575312605</v>
+        <v>12.22217018646353</v>
       </c>
       <c r="L170">
-        <v>70.0122730653593</v>
+        <v>42.97718223900553</v>
       </c>
       <c r="M170">
-        <v>61.51180248006268</v>
-      </c>
-      <c r="O170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <v>45.09778835036282</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>11.54715633392334</v>
+        <v>11.8229923248291</v>
       </c>
       <c r="C171">
-        <v>12.1433687210083</v>
+        <v>11.8229923248291</v>
       </c>
       <c r="D171">
-        <v>11.47049617767334</v>
+        <v>11.30337333679199</v>
       </c>
       <c r="E171">
-        <v>11.8741569519043</v>
+        <v>11.4675931930542</v>
       </c>
       <c r="F171">
-        <v>28729184</v>
+        <v>2244824</v>
       </c>
       <c r="G171">
-        <v>10.98030241958984</v>
+        <v>11.96426870202149</v>
       </c>
       <c r="H171">
-        <v>10.76246495246887</v>
+        <v>12.07961559295654</v>
       </c>
       <c r="I171">
-        <v>10.93631925582886</v>
+        <v>12.26592184702555</v>
       </c>
       <c r="J171">
-        <v>12.01960520570611</v>
+        <v>12.21217578919983</v>
       </c>
       <c r="L171">
-        <v>74.47658663834524</v>
+        <v>33.0879257134323</v>
       </c>
       <c r="M171">
-        <v>65.47733863222061</v>
-      </c>
-      <c r="O171" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <v>38.21681068614202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>11.87408351898193</v>
+        <v>11.4685869216919</v>
       </c>
       <c r="C172">
-        <v>11.88413047790527</v>
+        <v>11.68753910064697</v>
       </c>
       <c r="D172">
-        <v>11.45605373382568</v>
+        <v>11.26527118682861</v>
       </c>
       <c r="E172">
-        <v>11.54515075683594</v>
+        <v>11.32278728485107</v>
       </c>
       <c r="F172">
-        <v>8307056</v>
+        <v>1845504</v>
       </c>
       <c r="G172">
-        <v>11.0316522684304</v>
+        <v>11.90595220955145</v>
       </c>
       <c r="H172">
-        <v>10.78644924163818</v>
+        <v>12.03244481086731</v>
       </c>
       <c r="I172">
-        <v>10.9502467473348</v>
+        <v>12.23322327931722</v>
       </c>
       <c r="J172">
-        <v>12.01332104082042</v>
+        <v>12.20039580900978</v>
       </c>
       <c r="L172">
-        <v>63.10227727623403</v>
+        <v>29.93230752220812</v>
       </c>
       <c r="M172">
-        <v>58.49222460593463</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <v>35.81980621127662</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>11.54053974151611</v>
+        <v>11.32075500488281</v>
       </c>
       <c r="C173">
-        <v>11.55979824066162</v>
+        <v>11.66141986846924</v>
       </c>
       <c r="D173">
-        <v>11.24085426330566</v>
+        <v>11.25618553161621</v>
       </c>
       <c r="E173">
-        <v>11.43227672576904</v>
+        <v>11.6063289642334</v>
       </c>
       <c r="F173">
-        <v>910208</v>
+        <v>4074864</v>
       </c>
       <c r="G173">
-        <v>11.068072673643</v>
+        <v>11.87871373270435</v>
       </c>
       <c r="H173">
-        <v>10.80718431472778</v>
+        <v>11.99650058746338</v>
       </c>
       <c r="I173">
-        <v>10.96153637568156</v>
+        <v>12.20520064036051</v>
       </c>
       <c r="J173">
-        <v>12.00562508962768</v>
+        <v>12.19252737397963</v>
       </c>
       <c r="L173">
-        <v>59.58975296257343</v>
+        <v>42.09695342441738</v>
       </c>
       <c r="M173">
-        <v>56.2741995376933</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <v>43.31675306737998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>11.43275356292725</v>
+        <v>11.60172653198242</v>
       </c>
       <c r="C174">
-        <v>11.4625072479248</v>
+        <v>11.81975936889648</v>
       </c>
       <c r="D174">
-        <v>11.06269073486328</v>
+        <v>11.56918811798096</v>
       </c>
       <c r="E174">
-        <v>11.08574771881104</v>
+        <v>11.66941070556641</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>4776992</v>
       </c>
       <c r="G174">
-        <v>11.06967949593101</v>
+        <v>11.85968618478272</v>
       </c>
       <c r="H174">
-        <v>10.81269178390503</v>
+        <v>11.9561628818512</v>
       </c>
       <c r="I174">
-        <v>10.95679794947306</v>
+        <v>12.1730365117391</v>
       </c>
       <c r="J174">
-        <v>11.9934412833917</v>
+        <v>12.18559867638476</v>
       </c>
       <c r="L174">
-        <v>49.98080884339572</v>
+        <v>44.50824327700961</v>
       </c>
       <c r="M174">
-        <v>50.0050013837584</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>44.85995228713827</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>11.0845193862915</v>
+        <v>11.67033195495606</v>
       </c>
       <c r="C175">
-        <v>11.31952857971191</v>
+        <v>11.81375885009766</v>
       </c>
       <c r="D175">
-        <v>11.02307033538818</v>
+        <v>11.51379203796387</v>
       </c>
       <c r="E175">
-        <v>11.12783908843994</v>
+        <v>11.51379203796387</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>2528792</v>
       </c>
       <c r="G175">
-        <v>11.07496673161364</v>
+        <v>11.82824126234465</v>
       </c>
       <c r="H175">
-        <v>10.82699694633484</v>
+        <v>11.92196850776672</v>
       </c>
       <c r="I175">
-        <v>10.95076128641764</v>
+        <v>12.12915175755819</v>
       </c>
       <c r="J175">
-        <v>11.98197635365724</v>
+        <v>12.17670057521362</v>
       </c>
       <c r="L175">
-        <v>51.05921169899086</v>
+        <v>39.89718320173322</v>
       </c>
       <c r="M175">
-        <v>50.72310017383177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>41.83414752680095</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>11.12933349609375</v>
+        <v>11.50686359405518</v>
       </c>
       <c r="C176">
-        <v>11.17058658599854</v>
+        <v>11.65102005004883</v>
       </c>
       <c r="D176">
-        <v>11.04879665374756</v>
+        <v>11.34009742736816</v>
       </c>
       <c r="E176">
-        <v>11.1555118560791</v>
+        <v>11.563796043396</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1829648</v>
       </c>
       <c r="G176">
-        <v>11.08228901565595</v>
+        <v>11.80420078789477</v>
       </c>
       <c r="H176">
-        <v>10.84713749885559</v>
+        <v>11.88706583976746</v>
       </c>
       <c r="I176">
-        <v>10.94177891413371</v>
+        <v>12.08999331792196</v>
       </c>
       <c r="J176">
-        <v>11.97102980402044</v>
+        <v>12.16858263439484</v>
       </c>
       <c r="L176">
-        <v>51.82738054200293</v>
+        <v>42.06680208968381</v>
       </c>
       <c r="M176">
-        <v>51.21917930656951</v>
+        <v>43.16080198395878</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -7034,37 +7058,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>11.14986801147461</v>
+        <v>11.56505107879639</v>
       </c>
       <c r="C177">
-        <v>11.35076332092285</v>
+        <v>11.78190612792969</v>
       </c>
       <c r="D177">
-        <v>10.97618961334228</v>
+        <v>11.53804016113281</v>
       </c>
       <c r="E177">
-        <v>11.25825023651123</v>
+        <v>11.670823097229</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>396872</v>
       </c>
       <c r="G177">
-        <v>11.09828549027916</v>
+        <v>11.79207554328879</v>
       </c>
       <c r="H177">
-        <v>10.88197326660156</v>
+        <v>11.85425372123718</v>
       </c>
       <c r="I177">
-        <v>10.93449738820394</v>
+        <v>12.05447495778402</v>
       </c>
       <c r="J177">
-        <v>11.96158901504681</v>
+        <v>12.16198979284298</v>
       </c>
       <c r="L177">
-        <v>54.7911334161771</v>
+        <v>46.69976722354041</v>
       </c>
       <c r="M177">
-        <v>53.10666431482527</v>
+        <v>45.99975939967113</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -7072,37 +7096,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>11.25737857818604</v>
+        <v>11.67100524902344</v>
       </c>
       <c r="C178">
-        <v>11.3173828125</v>
+        <v>12.48580932617188</v>
       </c>
       <c r="D178">
-        <v>11.14577579498291</v>
+        <v>11.65558052062988</v>
       </c>
       <c r="E178">
-        <v>11.16188430786133</v>
+        <v>12.35346221923828</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>23657400</v>
       </c>
       <c r="G178">
-        <v>11.10406720096844</v>
+        <v>11.84311069564783</v>
       </c>
       <c r="H178">
-        <v>10.91699409484863</v>
+        <v>11.84626593589783</v>
       </c>
       <c r="I178">
-        <v>10.92916390101115</v>
+        <v>12.03891954421997</v>
       </c>
       <c r="J178">
-        <v>11.95099689971985</v>
+        <v>12.16452585147073</v>
       </c>
       <c r="L178">
-        <v>51.45089130794546</v>
+        <v>66.13337901480367</v>
       </c>
       <c r="M178">
-        <v>51.10906746636437</v>
+        <v>59.79367589652369</v>
       </c>
     </row>
     <row r="179" spans="1:15">
@@ -7110,37 +7134,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>11.16271495819092</v>
+        <v>12.34603977203369</v>
       </c>
       <c r="C179">
-        <v>11.95075702667236</v>
+        <v>12.67935562133789</v>
       </c>
       <c r="D179">
-        <v>11.1563663482666</v>
+        <v>12.22439289093018</v>
       </c>
       <c r="E179">
-        <v>11.87876510620117</v>
+        <v>12.53991794586182</v>
       </c>
       <c r="F179">
-        <v>9444472</v>
+        <v>23604880</v>
       </c>
       <c r="G179">
-        <v>11.17449428326233</v>
+        <v>11.90645680930365</v>
       </c>
       <c r="H179">
-        <v>10.97680597305298</v>
+        <v>11.84600076675415</v>
       </c>
       <c r="I179">
-        <v>10.94878778457642</v>
+        <v>12.0340012550354</v>
       </c>
       <c r="J179">
-        <v>11.95004018722292</v>
+        <v>12.16949793219114</v>
       </c>
       <c r="L179">
-        <v>67.85260954084482</v>
+        <v>69.54541906258517</v>
       </c>
       <c r="M179">
-        <v>62.43051949404157</v>
+        <v>62.60357797597123</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -7148,37 +7172,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>11.87768173217773</v>
+        <v>12.53958129882812</v>
       </c>
       <c r="C180">
-        <v>12.36652660369873</v>
+        <v>12.71886825561523</v>
       </c>
       <c r="D180">
-        <v>11.75374889373779</v>
+        <v>12.44845962524414</v>
       </c>
       <c r="E180">
-        <v>12.29769420623779</v>
+        <v>12.67477989196777</v>
       </c>
       <c r="F180">
-        <v>22633856</v>
+        <v>4130080</v>
       </c>
       <c r="G180">
-        <v>11.27660336716919</v>
+        <v>11.97630436227312</v>
       </c>
       <c r="H180">
-        <v>11.07596435546875</v>
+        <v>11.85799064636231</v>
       </c>
       <c r="I180">
-        <v>10.9824166615804</v>
+        <v>12.0335462252299</v>
       </c>
       <c r="J180">
-        <v>11.95464487621649</v>
+        <v>12.17619040847958</v>
       </c>
       <c r="L180">
-        <v>73.69502109807608</v>
+        <v>71.85291966753132</v>
       </c>
       <c r="M180">
-        <v>67.20916245774373</v>
+        <v>64.53423246432057</v>
       </c>
       <c r="O180" t="s">
         <v>195</v>
@@ -7189,37 +7213,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>12.29867172241211</v>
+        <v>12.68429374694824</v>
       </c>
       <c r="C181">
-        <v>12.52834701538086</v>
+        <v>12.73870754241943</v>
       </c>
       <c r="D181">
-        <v>12.15605068206787</v>
+        <v>12.26314067840576</v>
       </c>
       <c r="E181">
-        <v>12.18354892730713</v>
+        <v>12.465500831604</v>
       </c>
       <c r="F181">
-        <v>20396400</v>
+        <v>8277632</v>
       </c>
       <c r="G181">
-        <v>11.35905296354536</v>
+        <v>12.02077676857592</v>
       </c>
       <c r="H181">
-        <v>11.19553208351135</v>
+        <v>11.86749091148377</v>
       </c>
       <c r="I181">
-        <v>11.01253226598104</v>
+        <v>12.03243036270142</v>
       </c>
       <c r="J181">
-        <v>11.95767671795279</v>
+        <v>12.18002233461367</v>
       </c>
       <c r="L181">
-        <v>69.80626444515499</v>
+        <v>63.45888925042006</v>
       </c>
       <c r="M181">
-        <v>64.79099618657683</v>
+        <v>59.40862823904004</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -7227,37 +7251,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>12.18691349029541</v>
+        <v>12.4613037109375</v>
       </c>
       <c r="C182">
-        <v>12.33382987976074</v>
+        <v>12.6170129776001</v>
       </c>
       <c r="D182">
-        <v>12.05564785003662</v>
+        <v>12.4613037109375</v>
       </c>
       <c r="E182">
-        <v>12.1367998123169</v>
+        <v>12.6170129776001</v>
       </c>
       <c r="F182">
-        <v>6187264</v>
+        <v>1937568</v>
       </c>
       <c r="G182">
-        <v>11.42975722252459</v>
+        <v>12.07498006030539</v>
       </c>
       <c r="H182">
-        <v>11.29355330467224</v>
+        <v>11.88636198043823</v>
       </c>
       <c r="I182">
-        <v>11.04824342727661</v>
+        <v>12.04412403106689</v>
       </c>
       <c r="J182">
-        <v>11.96004920926888</v>
+        <v>12.18581029014992</v>
       </c>
       <c r="L182">
-        <v>68.14934174720162</v>
+        <v>66.63363673427104</v>
       </c>
       <c r="M182">
-        <v>63.77887009597017</v>
+        <v>61.77564555761869</v>
       </c>
     </row>
   </sheetData>
